--- a/Data/pe_covid.xlsx
+++ b/Data/pe_covid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\TS-DES\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E738C627-37E8-48F1-A367-D1B162C1F411}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359C246A-FD0F-4663-8324-68884B53A544}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19680" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>deaths_inc</t>
+  </si>
+  <si>
+    <t>conf_mm7</t>
+  </si>
+  <si>
+    <t>deaths_mm7</t>
   </si>
 </sst>
 </file>
@@ -2540,7 +2546,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2563,7 +2569,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$310</c:f>
+              <c:f>Sheet1!$E$2:$E$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="309"/>
@@ -3729,7 +3735,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3752,7 +3758,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$310</c:f>
+              <c:f>Sheet1!$F$2:$F$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="309"/>
@@ -7507,18 +7513,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7529,13 +7537,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43902</v>
       </c>
@@ -7546,15 +7560,15 @@
         <f>B2</f>
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <f>D2</f>
+      <c r="F2">
+        <f>E2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43903</v>
       </c>
@@ -7565,15 +7579,15 @@
         <f>B3-C2</f>
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <f>D3-D2</f>
+      <c r="F3">
+        <f>E3-E2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43904</v>
       </c>
@@ -7584,15 +7598,15 @@
         <f>B4-B3</f>
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E67" si="0">D4-D3</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="0">E4-E3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43905</v>
       </c>
@@ -7603,15 +7617,15 @@
         <f t="shared" ref="C5:C68" si="1">B5-B4</f>
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43906</v>
       </c>
@@ -7622,15 +7636,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43907</v>
       </c>
@@ -7641,15 +7655,15 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43908</v>
       </c>
@@ -7660,15 +7674,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43909</v>
       </c>
@@ -7680,14 +7694,22 @@
         <v>9</v>
       </c>
       <c r="D9">
+        <f>AVERAGE(C2:C8)</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f>AVERAGE(F2:F8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43910</v>
       </c>
@@ -7699,14 +7721,22 @@
         <v>3</v>
       </c>
       <c r="D10">
+        <f t="shared" ref="D10:D73" si="2">AVERAGE(C3:C9)</f>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" ref="G10:G73" si="3">AVERAGE(F3:F9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43911</v>
       </c>
@@ -7718,14 +7748,22 @@
         <v>2</v>
       </c>
       <c r="D11">
+        <f t="shared" si="2"/>
+        <v>4.1428571428571432</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43912</v>
       </c>
@@ -7737,14 +7775,22 @@
         <v>4</v>
       </c>
       <c r="D12">
+        <f t="shared" si="2"/>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43913</v>
       </c>
@@ -7756,14 +7802,22 @@
         <v>5</v>
       </c>
       <c r="D13">
+        <f t="shared" si="2"/>
+        <v>4.1428571428571432</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43914</v>
       </c>
@@ -7775,14 +7829,22 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <f t="shared" si="2"/>
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43915</v>
       </c>
@@ -7794,14 +7856,22 @@
         <v>4</v>
       </c>
       <c r="D15">
+        <f t="shared" si="2"/>
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43916</v>
       </c>
@@ -7813,14 +7883,22 @@
         <v>2</v>
       </c>
       <c r="D16">
+        <f t="shared" si="2"/>
+        <v>3.8571428571428572</v>
+      </c>
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43917</v>
       </c>
@@ -7832,14 +7910,22 @@
         <v>9</v>
       </c>
       <c r="D17">
+        <f t="shared" si="2"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="E17">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43918</v>
       </c>
@@ -7851,14 +7937,22 @@
         <v>11</v>
       </c>
       <c r="D18">
+        <f t="shared" si="2"/>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="E18">
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43919</v>
       </c>
@@ -7870,14 +7964,22 @@
         <v>5</v>
       </c>
       <c r="D19">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43920</v>
       </c>
@@ -7889,14 +7991,22 @@
         <v>4</v>
       </c>
       <c r="D20">
+        <f t="shared" si="2"/>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="E20">
         <v>6</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43921</v>
       </c>
@@ -7908,14 +8018,22 @@
         <v>10</v>
       </c>
       <c r="D21">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E21">
         <v>6</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43922</v>
       </c>
@@ -7927,14 +8045,22 @@
         <v>8</v>
       </c>
       <c r="D22">
+        <f t="shared" si="2"/>
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="E22">
         <v>8</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43923</v>
       </c>
@@ -7946,14 +8072,22 @@
         <v>11</v>
       </c>
       <c r="D23">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E23">
         <v>9</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43924</v>
       </c>
@@ -7965,14 +8099,22 @@
         <v>30</v>
       </c>
       <c r="D24">
+        <f t="shared" si="2"/>
+        <v>8.2857142857142865</v>
+      </c>
+      <c r="E24">
         <v>10</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43925</v>
       </c>
@@ -7984,14 +8126,22 @@
         <v>40</v>
       </c>
       <c r="D25">
+        <f t="shared" si="2"/>
+        <v>11.285714285714286</v>
+      </c>
+      <c r="E25">
         <v>14</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43926</v>
       </c>
@@ -8003,14 +8153,22 @@
         <v>25</v>
       </c>
       <c r="D26">
+        <f t="shared" si="2"/>
+        <v>15.428571428571429</v>
+      </c>
+      <c r="E26">
         <v>21</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43927</v>
       </c>
@@ -8022,14 +8180,22 @@
         <v>22</v>
       </c>
       <c r="D27">
+        <f t="shared" si="2"/>
+        <v>18.285714285714285</v>
+      </c>
+      <c r="E27">
         <v>30</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43928</v>
       </c>
@@ -8041,14 +8207,22 @@
         <v>129</v>
       </c>
       <c r="D28">
+        <f t="shared" si="2"/>
+        <v>20.857142857142858</v>
+      </c>
+      <c r="E28">
         <v>34</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43929</v>
       </c>
@@ -8060,14 +8234,22 @@
         <v>49</v>
       </c>
       <c r="D29">
+        <f t="shared" si="2"/>
+        <v>37.857142857142854</v>
+      </c>
+      <c r="E29">
         <v>46</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43930</v>
       </c>
@@ -8079,14 +8261,22 @@
         <v>154</v>
       </c>
       <c r="D30">
+        <f t="shared" si="2"/>
+        <v>43.714285714285715</v>
+      </c>
+      <c r="E30">
         <v>56</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>5.4285714285714288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43931</v>
       </c>
@@ -8098,14 +8288,22 @@
         <v>129</v>
       </c>
       <c r="D31">
+        <f t="shared" si="2"/>
+        <v>64.142857142857139</v>
+      </c>
+      <c r="E31">
         <v>65</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>6.7142857142857144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43932</v>
       </c>
@@ -8117,14 +8315,22 @@
         <v>132</v>
       </c>
       <c r="D32">
+        <f t="shared" si="2"/>
+        <v>78.285714285714292</v>
+      </c>
+      <c r="E32">
         <v>72</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>7.8571428571428568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43933</v>
       </c>
@@ -8136,14 +8342,22 @@
         <v>144</v>
       </c>
       <c r="D33">
+        <f t="shared" si="2"/>
+        <v>91.428571428571431</v>
+      </c>
+      <c r="E33">
         <v>85</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>8.2857142857142865</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43934</v>
       </c>
@@ -8155,14 +8369,22 @@
         <v>194</v>
       </c>
       <c r="D34">
+        <f t="shared" si="2"/>
+        <v>108.42857142857143</v>
+      </c>
+      <c r="E34">
         <v>102</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>9.1428571428571423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43935</v>
       </c>
@@ -8174,14 +8396,22 @@
         <v>130</v>
       </c>
       <c r="D35">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="E35">
         <v>115</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43936</v>
       </c>
@@ -8193,14 +8423,22 @@
         <v>200</v>
       </c>
       <c r="D36">
+        <f t="shared" si="2"/>
+        <v>133.14285714285714</v>
+      </c>
+      <c r="E36">
         <v>143</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>11.571428571428571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43937</v>
       </c>
@@ -8212,14 +8450,22 @@
         <v>199</v>
       </c>
       <c r="D37">
+        <f t="shared" si="2"/>
+        <v>154.71428571428572</v>
+      </c>
+      <c r="E37">
         <v>160</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>13.857142857142858</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43938</v>
       </c>
@@ -8231,14 +8477,22 @@
         <v>323</v>
       </c>
       <c r="D38">
+        <f t="shared" si="2"/>
+        <v>161.14285714285714</v>
+      </c>
+      <c r="E38">
         <v>186</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>14.857142857142858</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43939</v>
       </c>
@@ -8250,14 +8504,22 @@
         <v>187</v>
       </c>
       <c r="D39">
+        <f t="shared" si="2"/>
+        <v>188.85714285714286</v>
+      </c>
+      <c r="E39">
         <v>205</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>17.285714285714285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43940</v>
       </c>
@@ -8269,14 +8531,22 @@
         <v>266</v>
       </c>
       <c r="D40">
+        <f t="shared" si="2"/>
+        <v>196.71428571428572</v>
+      </c>
+      <c r="E40">
         <v>216</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43941</v>
       </c>
@@ -8288,14 +8558,22 @@
         <v>231</v>
       </c>
       <c r="D41">
+        <f t="shared" si="2"/>
+        <v>214.14285714285714</v>
+      </c>
+      <c r="E41">
         <v>234</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>18.714285714285715</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43942</v>
       </c>
@@ -8307,14 +8585,22 @@
         <v>218</v>
       </c>
       <c r="D42">
+        <f t="shared" si="2"/>
+        <v>219.42857142857142</v>
+      </c>
+      <c r="E42">
         <v>260</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>18.857142857142858</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43943</v>
       </c>
@@ -8326,14 +8612,22 @@
         <v>390</v>
       </c>
       <c r="D43">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="E43">
         <v>282</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>20.714285714285715</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43944</v>
       </c>
@@ -8345,14 +8639,22 @@
         <v>306</v>
       </c>
       <c r="D44">
+        <f t="shared" si="2"/>
+        <v>259.14285714285717</v>
+      </c>
+      <c r="E44">
         <v>312</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>19.857142857142858</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43945</v>
       </c>
@@ -8364,14 +8666,22 @@
         <v>395</v>
       </c>
       <c r="D45">
+        <f t="shared" si="2"/>
+        <v>274.42857142857144</v>
+      </c>
+      <c r="E45">
         <v>352</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>21.714285714285715</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43946</v>
       </c>
@@ -8383,14 +8693,22 @@
         <v>508</v>
       </c>
       <c r="D46">
+        <f t="shared" si="2"/>
+        <v>284.71428571428572</v>
+      </c>
+      <c r="E46">
         <v>381</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>23.714285714285715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43947</v>
       </c>
@@ -8402,14 +8720,22 @@
         <v>391</v>
       </c>
       <c r="D47">
+        <f t="shared" si="2"/>
+        <v>330.57142857142856</v>
+      </c>
+      <c r="E47">
         <v>415</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>25.142857142857142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43948</v>
       </c>
@@ -8421,14 +8747,22 @@
         <v>460</v>
       </c>
       <c r="D48">
+        <f t="shared" si="2"/>
+        <v>348.42857142857144</v>
+      </c>
+      <c r="E48">
         <v>450</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>28.428571428571427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43949</v>
       </c>
@@ -8440,14 +8774,22 @@
         <v>366</v>
       </c>
       <c r="D49">
+        <f t="shared" si="2"/>
+        <v>381.14285714285717</v>
+      </c>
+      <c r="E49">
         <v>508</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>30.857142857142858</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43950</v>
       </c>
@@ -8459,14 +8801,22 @@
         <v>470</v>
       </c>
       <c r="D50">
+        <f t="shared" si="2"/>
+        <v>402.28571428571428</v>
+      </c>
+      <c r="E50">
         <v>538</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>35.428571428571431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43951</v>
       </c>
@@ -8478,14 +8828,22 @@
         <v>682</v>
       </c>
       <c r="D51">
+        <f t="shared" si="2"/>
+        <v>413.71428571428572</v>
+      </c>
+      <c r="E51">
         <v>565</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>36.571428571428569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43952</v>
       </c>
@@ -8497,14 +8855,22 @@
         <v>458</v>
       </c>
       <c r="D52">
+        <f t="shared" si="2"/>
+        <v>467.42857142857144</v>
+      </c>
+      <c r="E52">
         <v>603</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>36.142857142857146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43953</v>
       </c>
@@ -8516,14 +8882,22 @@
         <v>811</v>
       </c>
       <c r="D53">
+        <f t="shared" si="2"/>
+        <v>476.42857142857144</v>
+      </c>
+      <c r="E53">
         <v>628</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>35.857142857142854</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43954</v>
       </c>
@@ -8535,14 +8909,22 @@
         <v>498</v>
       </c>
       <c r="D54">
+        <f t="shared" si="2"/>
+        <v>519.71428571428567</v>
+      </c>
+      <c r="E54">
         <v>652</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>35.285714285714285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43955</v>
       </c>
@@ -8554,14 +8936,22 @@
         <v>220</v>
       </c>
       <c r="D55">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="E55">
         <v>691</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>33.857142857142854</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43956</v>
       </c>
@@ -8573,14 +8963,22 @@
         <v>462</v>
       </c>
       <c r="D56">
+        <f t="shared" si="2"/>
+        <v>500.71428571428572</v>
+      </c>
+      <c r="E56">
         <v>749</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>34.428571428571431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43957</v>
       </c>
@@ -8592,14 +8990,22 @@
         <v>556</v>
       </c>
       <c r="D57">
+        <f t="shared" si="2"/>
+        <v>514.42857142857144</v>
+      </c>
+      <c r="E57">
         <v>803</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>34.428571428571431</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43958</v>
       </c>
@@ -8611,14 +9017,22 @@
         <v>943</v>
       </c>
       <c r="D58">
+        <f t="shared" si="2"/>
+        <v>526.71428571428567</v>
+      </c>
+      <c r="E58">
         <v>845</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>37.857142857142854</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43959</v>
       </c>
@@ -8630,14 +9044,22 @@
         <v>763</v>
       </c>
       <c r="D59">
+        <f t="shared" si="2"/>
+        <v>564</v>
+      </c>
+      <c r="E59">
         <v>927</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43960</v>
       </c>
@@ -8649,14 +9071,22 @@
         <v>883</v>
       </c>
       <c r="D60">
+        <f t="shared" si="2"/>
+        <v>607.57142857142856</v>
+      </c>
+      <c r="E60">
         <v>972</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>46.285714285714285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43961</v>
       </c>
@@ -8668,14 +9098,22 @@
         <v>805</v>
       </c>
       <c r="D61">
+        <f t="shared" si="2"/>
+        <v>617.85714285714289</v>
+      </c>
+      <c r="E61">
         <v>1047</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <f t="shared" si="3"/>
+        <v>49.142857142857146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43962</v>
       </c>
@@ -8687,14 +9125,22 @@
         <v>493</v>
       </c>
       <c r="D62">
+        <f t="shared" si="2"/>
+        <v>661.71428571428567</v>
+      </c>
+      <c r="E62">
         <v>1087</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <f t="shared" si="3"/>
+        <v>56.428571428571431</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43963</v>
       </c>
@@ -8706,14 +9152,22 @@
         <v>541</v>
       </c>
       <c r="D63">
+        <f t="shared" si="2"/>
+        <v>700.71428571428567</v>
+      </c>
+      <c r="E63">
         <v>1157</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>56.571428571428569</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43964</v>
       </c>
@@ -8725,14 +9179,22 @@
         <v>592</v>
       </c>
       <c r="D64">
+        <f t="shared" si="2"/>
+        <v>712</v>
+      </c>
+      <c r="E64">
         <v>1224</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f t="shared" si="3"/>
+        <v>58.285714285714285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43965</v>
       </c>
@@ -8744,14 +9206,22 @@
         <v>687</v>
       </c>
       <c r="D65">
+        <f t="shared" si="2"/>
+        <v>717.14285714285711</v>
+      </c>
+      <c r="E65">
         <v>1298</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <f t="shared" si="3"/>
+        <v>60.142857142857146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43966</v>
       </c>
@@ -8763,14 +9233,22 @@
         <v>621</v>
       </c>
       <c r="D66">
+        <f t="shared" si="2"/>
+        <v>680.57142857142856</v>
+      </c>
+      <c r="E66">
         <v>1381</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <f t="shared" si="3"/>
+        <v>64.714285714285708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43967</v>
       </c>
@@ -8782,14 +9260,22 @@
         <v>2279</v>
       </c>
       <c r="D67">
+        <f t="shared" si="2"/>
+        <v>660.28571428571433</v>
+      </c>
+      <c r="E67">
         <v>1461</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <f t="shared" si="3"/>
+        <v>64.857142857142861</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43968</v>
       </c>
@@ -8801,14 +9287,22 @@
         <v>964</v>
       </c>
       <c r="D68">
+        <f t="shared" si="2"/>
+        <v>859.71428571428567</v>
+      </c>
+      <c r="E68">
         <v>1516</v>
       </c>
-      <c r="E68">
-        <f t="shared" ref="E68:E131" si="2">D68-D67</f>
+      <c r="F68">
+        <f t="shared" ref="F68:F131" si="4">E68-E67</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>69.857142857142861</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43969</v>
       </c>
@@ -8816,18 +9310,26 @@
         <v>20094</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C132" si="3">B69-B68</f>
+        <f t="shared" ref="C69:C132" si="5">B69-B68</f>
         <v>642</v>
       </c>
       <c r="D69">
+        <f t="shared" si="2"/>
+        <v>882.42857142857144</v>
+      </c>
+      <c r="E69">
         <v>1640</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="2"/>
+      <c r="F69">
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43970</v>
       </c>
@@ -8835,18 +9337,26 @@
         <v>21242</v>
       </c>
       <c r="C70">
+        <f t="shared" si="5"/>
+        <v>1148</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>903.71428571428567</v>
+      </c>
+      <c r="E70">
+        <v>1741</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="3"/>
-        <v>1148</v>
-      </c>
-      <c r="D70">
-        <v>1741</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43971</v>
       </c>
@@ -8854,18 +9364,26 @@
         <v>22560</v>
       </c>
       <c r="C71">
+        <f t="shared" si="5"/>
+        <v>1318</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>990.42857142857144</v>
+      </c>
+      <c r="E71">
+        <v>1834</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="3"/>
-        <v>1318</v>
-      </c>
-      <c r="D71">
-        <v>1834</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83.428571428571431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43972</v>
       </c>
@@ -8873,18 +9391,26 @@
         <v>23911</v>
       </c>
       <c r="C72">
+        <f t="shared" si="5"/>
+        <v>1351</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>1094.1428571428571</v>
+      </c>
+      <c r="E72">
+        <v>1925</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="3"/>
-        <v>1351</v>
-      </c>
-      <c r="D72">
-        <v>1925</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87.142857142857139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43973</v>
       </c>
@@ -8892,18 +9418,26 @@
         <v>25760</v>
       </c>
       <c r="C73">
+        <f t="shared" si="5"/>
+        <v>1849</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>1189</v>
+      </c>
+      <c r="E73">
+        <v>2057</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="3"/>
-        <v>1849</v>
-      </c>
-      <c r="D73">
-        <v>2057</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89.571428571428569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43974</v>
       </c>
@@ -8911,18 +9445,26 @@
         <v>26786</v>
       </c>
       <c r="C74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1026</v>
       </c>
       <c r="D74">
+        <f t="shared" ref="D74:D137" si="6">AVERAGE(C67:C73)</f>
+        <v>1364.4285714285713</v>
+      </c>
+      <c r="E74">
         <v>2144</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="2"/>
+      <c r="F74">
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <f t="shared" ref="G74:G137" si="7">AVERAGE(F67:F73)</f>
+        <v>96.571428571428569</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43975</v>
       </c>
@@ -8930,18 +9472,26 @@
         <v>27759</v>
       </c>
       <c r="C75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>973</v>
       </c>
       <c r="D75">
+        <f t="shared" si="6"/>
+        <v>1185.4285714285713</v>
+      </c>
+      <c r="E75">
         <v>2200</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="2"/>
+      <c r="F75">
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <f t="shared" si="7"/>
+        <v>97.571428571428569</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43976</v>
       </c>
@@ -8949,18 +9499,26 @@
         <v>28366</v>
       </c>
       <c r="C76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>607</v>
       </c>
       <c r="D76">
+        <f t="shared" si="6"/>
+        <v>1186.7142857142858</v>
+      </c>
+      <c r="E76">
         <v>2248</v>
       </c>
-      <c r="E76">
-        <f t="shared" si="2"/>
+      <c r="F76">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <f t="shared" si="7"/>
+        <v>97.714285714285708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43977</v>
       </c>
@@ -8968,18 +9526,26 @@
         <v>28854</v>
       </c>
       <c r="C77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>488</v>
       </c>
       <c r="D77">
+        <f t="shared" si="6"/>
+        <v>1181.7142857142858</v>
+      </c>
+      <c r="E77">
         <v>2328</v>
       </c>
-      <c r="E77">
-        <f t="shared" si="2"/>
+      <c r="F77">
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <f t="shared" si="7"/>
+        <v>86.857142857142861</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43978</v>
       </c>
@@ -8987,18 +9553,26 @@
         <v>29919</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1065</v>
       </c>
       <c r="D78">
+        <f t="shared" si="6"/>
+        <v>1087.4285714285713</v>
+      </c>
+      <c r="E78">
         <v>2468</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="2"/>
+      <c r="F78">
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <f t="shared" si="7"/>
+        <v>83.857142857142861</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43979</v>
       </c>
@@ -9006,18 +9580,26 @@
         <v>30713</v>
       </c>
       <c r="C79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>794</v>
       </c>
       <c r="D79">
+        <f t="shared" si="6"/>
+        <v>1051.2857142857142</v>
+      </c>
+      <c r="E79">
         <v>2566</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="2"/>
+      <c r="F79">
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <f t="shared" si="7"/>
+        <v>90.571428571428569</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43980</v>
       </c>
@@ -9025,18 +9607,26 @@
         <v>32255</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1542</v>
       </c>
       <c r="D80">
+        <f t="shared" si="6"/>
+        <v>971.71428571428567</v>
+      </c>
+      <c r="E80">
         <v>2669</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="2"/>
+      <c r="F80">
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <f t="shared" si="7"/>
+        <v>91.571428571428569</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43981</v>
       </c>
@@ -9044,18 +9634,26 @@
         <v>33427</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1172</v>
       </c>
       <c r="D81">
+        <f t="shared" si="6"/>
+        <v>927.85714285714289</v>
+      </c>
+      <c r="E81">
         <v>2740</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="2"/>
+      <c r="F81">
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <f t="shared" si="7"/>
+        <v>87.428571428571431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43982</v>
       </c>
@@ -9063,18 +9661,26 @@
         <v>34450</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1023</v>
       </c>
       <c r="D82">
+        <f t="shared" si="6"/>
+        <v>948.71428571428567</v>
+      </c>
+      <c r="E82">
         <v>2807</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="2"/>
+      <c r="F82">
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <f t="shared" si="7"/>
+        <v>85.142857142857139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43983</v>
       </c>
@@ -9082,18 +9688,26 @@
         <v>34900</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>450</v>
       </c>
       <c r="D83">
+        <f t="shared" si="6"/>
+        <v>955.85714285714289</v>
+      </c>
+      <c r="E83">
         <v>2875</v>
       </c>
-      <c r="E83">
-        <f t="shared" si="2"/>
+      <c r="F83">
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <f t="shared" si="7"/>
+        <v>86.714285714285708</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43984</v>
       </c>
@@ -9101,18 +9715,26 @@
         <v>35508</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>608</v>
       </c>
       <c r="D84">
+        <f t="shared" si="6"/>
+        <v>933.42857142857144</v>
+      </c>
+      <c r="E84">
         <v>2933</v>
       </c>
-      <c r="E84">
-        <f t="shared" si="2"/>
+      <c r="F84">
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <f t="shared" si="7"/>
+        <v>89.571428571428569</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43985</v>
       </c>
@@ -9120,18 +9742,26 @@
         <v>36463</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>955</v>
       </c>
       <c r="D85">
+        <f t="shared" si="6"/>
+        <v>950.57142857142856</v>
+      </c>
+      <c r="E85">
         <v>3012</v>
       </c>
-      <c r="E85">
-        <f t="shared" si="2"/>
+      <c r="F85">
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <f t="shared" si="7"/>
+        <v>86.428571428571431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43986</v>
       </c>
@@ -9139,18 +9769,26 @@
         <v>37507</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1044</v>
       </c>
       <c r="D86">
+        <f t="shared" si="6"/>
+        <v>934.85714285714289</v>
+      </c>
+      <c r="E86">
         <v>3134</v>
       </c>
-      <c r="E86">
-        <f t="shared" si="2"/>
+      <c r="F86">
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <f t="shared" si="7"/>
+        <v>77.714285714285708</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43987</v>
       </c>
@@ -9158,18 +9796,26 @@
         <v>38511</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1004</v>
       </c>
       <c r="D87">
+        <f t="shared" si="6"/>
+        <v>970.57142857142856</v>
+      </c>
+      <c r="E87">
         <v>3205</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="2"/>
+      <c r="F87">
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <f t="shared" si="7"/>
+        <v>81.142857142857139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43988</v>
       </c>
@@ -9177,18 +9823,26 @@
         <v>39361</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>850</v>
       </c>
       <c r="D88">
+        <f t="shared" si="6"/>
+        <v>893.71428571428567</v>
+      </c>
+      <c r="E88">
         <v>3270</v>
       </c>
-      <c r="E88">
-        <f t="shared" si="2"/>
+      <c r="F88">
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <f t="shared" si="7"/>
+        <v>76.571428571428569</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43989</v>
       </c>
@@ -9196,18 +9850,26 @@
         <v>40242</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>881</v>
       </c>
       <c r="D89">
+        <f t="shared" si="6"/>
+        <v>847.71428571428567</v>
+      </c>
+      <c r="E89">
         <v>3305</v>
       </c>
-      <c r="E89">
-        <f t="shared" si="2"/>
+      <c r="F89">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <f t="shared" si="7"/>
+        <v>75.714285714285708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43990</v>
       </c>
@@ -9215,18 +9877,26 @@
         <v>40705</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>463</v>
       </c>
       <c r="D90">
+        <f t="shared" si="6"/>
+        <v>827.42857142857144</v>
+      </c>
+      <c r="E90">
         <v>3350</v>
       </c>
-      <c r="E90">
-        <f t="shared" si="2"/>
+      <c r="F90">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <f t="shared" si="7"/>
+        <v>71.142857142857139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43991</v>
       </c>
@@ -9234,18 +9904,26 @@
         <v>41010</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>305</v>
       </c>
       <c r="D91">
+        <f t="shared" si="6"/>
+        <v>829.28571428571433</v>
+      </c>
+      <c r="E91">
         <v>3453</v>
       </c>
-      <c r="E91">
-        <f t="shared" si="2"/>
+      <c r="F91">
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <f t="shared" si="7"/>
+        <v>67.857142857142861</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43992</v>
       </c>
@@ -9253,18 +9931,26 @@
         <v>41935</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>925</v>
       </c>
       <c r="D92">
+        <f t="shared" si="6"/>
+        <v>786</v>
+      </c>
+      <c r="E92">
         <v>3531</v>
       </c>
-      <c r="E92">
-        <f t="shared" si="2"/>
+      <c r="F92">
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <f t="shared" si="7"/>
+        <v>74.285714285714292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43993</v>
       </c>
@@ -9272,18 +9958,26 @@
         <v>42994</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1059</v>
       </c>
       <c r="D93">
+        <f t="shared" si="6"/>
+        <v>781.71428571428567</v>
+      </c>
+      <c r="E93">
         <v>3633</v>
       </c>
-      <c r="E93">
-        <f t="shared" si="2"/>
+      <c r="F93">
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <f t="shared" si="7"/>
+        <v>74.142857142857139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43994</v>
       </c>
@@ -9291,18 +9985,26 @@
         <v>43872</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>878</v>
       </c>
       <c r="D94">
+        <f t="shared" si="6"/>
+        <v>783.85714285714289</v>
+      </c>
+      <c r="E94">
         <v>3694</v>
       </c>
-      <c r="E94">
-        <f t="shared" si="2"/>
+      <c r="F94">
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <f t="shared" si="7"/>
+        <v>71.285714285714292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43995</v>
       </c>
@@ -9310,18 +10012,26 @@
         <v>44671</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>799</v>
       </c>
       <c r="D95">
+        <f t="shared" si="6"/>
+        <v>765.85714285714289</v>
+      </c>
+      <c r="E95">
         <v>3784</v>
       </c>
-      <c r="E95">
-        <f t="shared" si="2"/>
+      <c r="F95">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <f t="shared" si="7"/>
+        <v>69.857142857142861</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43996</v>
       </c>
@@ -9329,18 +10039,26 @@
         <v>45261</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>590</v>
       </c>
       <c r="D96">
+        <f t="shared" si="6"/>
+        <v>758.57142857142856</v>
+      </c>
+      <c r="E96">
         <v>3855</v>
       </c>
-      <c r="E96">
-        <f t="shared" si="2"/>
+      <c r="F96">
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <f t="shared" si="7"/>
+        <v>73.428571428571431</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43997</v>
       </c>
@@ -9348,18 +10066,26 @@
         <v>45507</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>246</v>
       </c>
       <c r="D97">
+        <f t="shared" si="6"/>
+        <v>717</v>
+      </c>
+      <c r="E97">
         <v>3886</v>
       </c>
-      <c r="E97">
-        <f t="shared" si="2"/>
+      <c r="F97">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <f t="shared" si="7"/>
+        <v>78.571428571428569</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43998</v>
       </c>
@@ -9367,18 +10093,26 @@
         <v>46427</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>920</v>
       </c>
       <c r="D98">
+        <f t="shared" si="6"/>
+        <v>686</v>
+      </c>
+      <c r="E98">
         <v>3959</v>
       </c>
-      <c r="E98">
-        <f t="shared" si="2"/>
+      <c r="F98">
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <f t="shared" si="7"/>
+        <v>76.571428571428569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43999</v>
       </c>
@@ -9386,18 +10120,26 @@
         <v>47446</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1019</v>
       </c>
       <c r="D99">
+        <f t="shared" si="6"/>
+        <v>773.85714285714289</v>
+      </c>
+      <c r="E99">
         <v>4009</v>
       </c>
-      <c r="E99">
-        <f t="shared" si="2"/>
+      <c r="F99">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <f t="shared" si="7"/>
+        <v>72.285714285714292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44000</v>
       </c>
@@ -9405,18 +10147,26 @@
         <v>48626</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1180</v>
       </c>
       <c r="D100">
+        <f t="shared" si="6"/>
+        <v>787.28571428571433</v>
+      </c>
+      <c r="E100">
         <v>4057</v>
       </c>
-      <c r="E100">
-        <f t="shared" si="2"/>
+      <c r="F100">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <f t="shared" si="7"/>
+        <v>68.285714285714292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44001</v>
       </c>
@@ -9424,18 +10174,26 @@
         <v>49720</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1094</v>
       </c>
       <c r="D101">
+        <f t="shared" si="6"/>
+        <v>804.57142857142856</v>
+      </c>
+      <c r="E101">
         <v>4102</v>
       </c>
-      <c r="E101">
-        <f t="shared" si="2"/>
+      <c r="F101">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <f t="shared" si="7"/>
+        <v>60.571428571428569</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44002</v>
       </c>
@@ -9443,18 +10201,26 @@
         <v>51118</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1398</v>
       </c>
       <c r="D102">
+        <f t="shared" si="6"/>
+        <v>835.42857142857144</v>
+      </c>
+      <c r="E102">
         <v>4148</v>
       </c>
-      <c r="E102">
-        <f t="shared" si="2"/>
+      <c r="F102">
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <f t="shared" si="7"/>
+        <v>58.285714285714285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44003</v>
       </c>
@@ -9462,18 +10228,26 @@
         <v>52113</v>
       </c>
       <c r="C103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>995</v>
       </c>
       <c r="D103">
+        <f t="shared" si="6"/>
+        <v>921</v>
+      </c>
+      <c r="E103">
         <v>4234</v>
       </c>
-      <c r="E103">
-        <f t="shared" si="2"/>
+      <c r="F103">
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44004</v>
       </c>
@@ -9481,18 +10255,26 @@
         <v>52494</v>
       </c>
       <c r="C104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>381</v>
       </c>
       <c r="D104">
+        <f t="shared" si="6"/>
+        <v>978.85714285714289</v>
+      </c>
+      <c r="E104">
         <v>4252</v>
       </c>
-      <c r="E104">
-        <f t="shared" si="2"/>
+      <c r="F104">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <f t="shared" si="7"/>
+        <v>54.142857142857146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44005</v>
       </c>
@@ -9500,18 +10282,26 @@
         <v>52831</v>
       </c>
       <c r="C105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>337</v>
       </c>
       <c r="D105">
+        <f t="shared" si="6"/>
+        <v>998.14285714285711</v>
+      </c>
+      <c r="E105">
         <v>4339</v>
       </c>
-      <c r="E105">
-        <f t="shared" si="2"/>
+      <c r="F105">
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <f t="shared" si="7"/>
+        <v>52.285714285714285</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44006</v>
       </c>
@@ -9519,18 +10309,26 @@
         <v>54022</v>
       </c>
       <c r="C106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1191</v>
       </c>
       <c r="D106">
+        <f t="shared" si="6"/>
+        <v>914.85714285714289</v>
+      </c>
+      <c r="E106">
         <v>4425</v>
       </c>
-      <c r="E106">
-        <f t="shared" si="2"/>
+      <c r="F106">
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <f t="shared" si="7"/>
+        <v>54.285714285714285</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44007</v>
       </c>
@@ -9538,18 +10336,26 @@
         <v>55136</v>
       </c>
       <c r="C107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1114</v>
       </c>
       <c r="D107">
+        <f t="shared" si="6"/>
+        <v>939.42857142857144</v>
+      </c>
+      <c r="E107">
         <v>4488</v>
       </c>
-      <c r="E107">
-        <f t="shared" si="2"/>
+      <c r="F107">
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <f t="shared" si="7"/>
+        <v>59.428571428571431</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44008</v>
       </c>
@@ -9557,18 +10363,26 @@
         <v>55804</v>
       </c>
       <c r="C108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>668</v>
       </c>
       <c r="D108">
+        <f t="shared" si="6"/>
+        <v>930</v>
+      </c>
+      <c r="E108">
         <v>4610</v>
       </c>
-      <c r="E108">
-        <f t="shared" si="2"/>
+      <c r="F108">
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <f t="shared" si="7"/>
+        <v>61.571428571428569</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44009</v>
       </c>
@@ -9576,18 +10390,26 @@
         <v>57089</v>
       </c>
       <c r="C109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1285</v>
       </c>
       <c r="D109">
+        <f t="shared" si="6"/>
+        <v>869.14285714285711</v>
+      </c>
+      <c r="E109">
         <v>4708</v>
       </c>
-      <c r="E109">
-        <f t="shared" si="2"/>
+      <c r="F109">
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <f t="shared" si="7"/>
+        <v>72.571428571428569</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44010</v>
       </c>
@@ -9595,18 +10417,26 @@
         <v>58107</v>
       </c>
       <c r="C110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1018</v>
       </c>
       <c r="D110">
+        <f t="shared" si="6"/>
+        <v>853</v>
+      </c>
+      <c r="E110">
         <v>4751</v>
       </c>
-      <c r="E110">
-        <f t="shared" si="2"/>
+      <c r="F110">
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44011</v>
       </c>
@@ -9614,18 +10444,26 @@
         <v>58476</v>
       </c>
       <c r="C111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>369</v>
       </c>
       <c r="D111">
+        <f t="shared" si="6"/>
+        <v>856.28571428571433</v>
+      </c>
+      <c r="E111">
         <v>4782</v>
       </c>
-      <c r="E111">
-        <f t="shared" si="2"/>
+      <c r="F111">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <f t="shared" si="7"/>
+        <v>73.857142857142861</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44012</v>
       </c>
@@ -9633,18 +10471,26 @@
         <v>58858</v>
       </c>
       <c r="C112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>382</v>
       </c>
       <c r="D112">
+        <f t="shared" si="6"/>
+        <v>854.57142857142856</v>
+      </c>
+      <c r="E112">
         <v>4829</v>
       </c>
-      <c r="E112">
-        <f t="shared" si="2"/>
+      <c r="F112">
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <f t="shared" si="7"/>
+        <v>75.714285714285708</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44013</v>
       </c>
@@ -9652,18 +10498,26 @@
         <v>59705</v>
       </c>
       <c r="C113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>847</v>
       </c>
       <c r="D113">
+        <f t="shared" si="6"/>
+        <v>861</v>
+      </c>
+      <c r="E113">
         <v>4894</v>
       </c>
-      <c r="E113">
-        <f t="shared" si="2"/>
+      <c r="F113">
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44014</v>
       </c>
@@ -9671,18 +10525,26 @@
         <v>61119</v>
       </c>
       <c r="C114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1414</v>
       </c>
       <c r="D114">
+        <f t="shared" si="6"/>
+        <v>811.85714285714289</v>
+      </c>
+      <c r="E114">
         <v>4968</v>
       </c>
-      <c r="E114">
-        <f t="shared" si="2"/>
+      <c r="F114">
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44015</v>
       </c>
@@ -9690,18 +10552,26 @@
         <v>62362</v>
       </c>
       <c r="C115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1243</v>
       </c>
       <c r="D115">
+        <f t="shared" si="6"/>
+        <v>854.71428571428567</v>
+      </c>
+      <c r="E115">
         <v>5068</v>
       </c>
-      <c r="E115">
-        <f t="shared" si="2"/>
+      <c r="F115">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <f t="shared" si="7"/>
+        <v>68.571428571428569</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44016</v>
       </c>
@@ -9709,18 +10579,26 @@
         <v>63457</v>
       </c>
       <c r="C116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1095</v>
       </c>
       <c r="D116">
+        <f t="shared" si="6"/>
+        <v>936.85714285714289</v>
+      </c>
+      <c r="E116">
         <v>5116</v>
       </c>
-      <c r="E116">
-        <f t="shared" si="2"/>
+      <c r="F116">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <f t="shared" si="7"/>
+        <v>65.428571428571431</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44017</v>
       </c>
@@ -9728,18 +10606,26 @@
         <v>65129</v>
       </c>
       <c r="C117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1672</v>
       </c>
       <c r="D117">
+        <f t="shared" si="6"/>
+        <v>909.71428571428567</v>
+      </c>
+      <c r="E117">
         <v>5143</v>
       </c>
-      <c r="E117">
-        <f t="shared" si="2"/>
+      <c r="F117">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <f t="shared" si="7"/>
+        <v>58.285714285714285</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44018</v>
       </c>
@@ -9747,18 +10633,26 @@
         <v>65642</v>
       </c>
       <c r="C118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>513</v>
       </c>
       <c r="D118">
+        <f t="shared" si="6"/>
+        <v>1003.1428571428571</v>
+      </c>
+      <c r="E118">
         <v>5163</v>
       </c>
-      <c r="E118">
-        <f t="shared" si="2"/>
+      <c r="F118">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44019</v>
       </c>
@@ -9766,18 +10660,26 @@
         <v>66151</v>
       </c>
       <c r="C119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>509</v>
       </c>
       <c r="D119">
+        <f t="shared" si="6"/>
+        <v>1023.7142857142857</v>
+      </c>
+      <c r="E119">
         <v>5234</v>
       </c>
-      <c r="E119">
-        <f t="shared" si="2"/>
+      <c r="F119">
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <f t="shared" si="7"/>
+        <v>54.428571428571431</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44020</v>
       </c>
@@ -9785,18 +10687,26 @@
         <v>67604</v>
       </c>
       <c r="C120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1453</v>
       </c>
       <c r="D120">
+        <f t="shared" si="6"/>
+        <v>1041.8571428571429</v>
+      </c>
+      <c r="E120">
         <v>5323</v>
       </c>
-      <c r="E120">
-        <f t="shared" si="2"/>
+      <c r="F120">
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <f t="shared" si="7"/>
+        <v>57.857142857142854</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44021</v>
       </c>
@@ -9804,18 +10714,26 @@
         <v>68767</v>
       </c>
       <c r="C121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1163</v>
       </c>
       <c r="D121">
+        <f t="shared" si="6"/>
+        <v>1128.4285714285713</v>
+      </c>
+      <c r="E121">
         <v>5409</v>
       </c>
-      <c r="E121">
-        <f t="shared" si="2"/>
+      <c r="F121">
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <f t="shared" si="7"/>
+        <v>61.285714285714285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44022</v>
       </c>
@@ -9823,18 +10741,26 @@
         <v>70100</v>
       </c>
       <c r="C122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1333</v>
       </c>
       <c r="D122">
+        <f t="shared" si="6"/>
+        <v>1092.5714285714287</v>
+      </c>
+      <c r="E122">
         <v>5482</v>
       </c>
-      <c r="E122">
-        <f t="shared" si="2"/>
+      <c r="F122">
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44023</v>
       </c>
@@ -9842,18 +10768,26 @@
         <v>71370</v>
       </c>
       <c r="C123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1270</v>
       </c>
       <c r="D123">
+        <f t="shared" si="6"/>
+        <v>1105.4285714285713</v>
+      </c>
+      <c r="E123">
         <v>5556</v>
       </c>
-      <c r="E123">
-        <f t="shared" si="2"/>
+      <c r="F123">
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <f t="shared" si="7"/>
+        <v>59.142857142857146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44024</v>
       </c>
@@ -9861,18 +10795,26 @@
         <v>72470</v>
       </c>
       <c r="C124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1100</v>
       </c>
       <c r="D124">
+        <f t="shared" si="6"/>
+        <v>1130.4285714285713</v>
+      </c>
+      <c r="E124">
         <v>5595</v>
       </c>
-      <c r="E124">
-        <f t="shared" si="2"/>
+      <c r="F124">
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <f t="shared" si="7"/>
+        <v>62.857142857142854</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44025</v>
       </c>
@@ -9880,18 +10822,26 @@
         <v>72901</v>
       </c>
       <c r="C125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>431</v>
       </c>
       <c r="D125">
+        <f t="shared" si="6"/>
+        <v>1048.7142857142858</v>
+      </c>
+      <c r="E125">
         <v>5652</v>
       </c>
-      <c r="E125">
-        <f t="shared" si="2"/>
+      <c r="F125">
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <f t="shared" si="7"/>
+        <v>64.571428571428569</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44026</v>
       </c>
@@ -9899,18 +10849,26 @@
         <v>73576</v>
       </c>
       <c r="C126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>675</v>
       </c>
       <c r="D126">
+        <f t="shared" si="6"/>
+        <v>1037</v>
+      </c>
+      <c r="E126">
         <v>5715</v>
       </c>
-      <c r="E126">
-        <f t="shared" si="2"/>
+      <c r="F126">
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <f t="shared" si="7"/>
+        <v>69.857142857142861</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44027</v>
       </c>
@@ -9918,18 +10876,26 @@
         <v>74960</v>
       </c>
       <c r="C127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1384</v>
       </c>
       <c r="D127">
+        <f t="shared" si="6"/>
+        <v>1060.7142857142858</v>
+      </c>
+      <c r="E127">
         <v>5772</v>
       </c>
-      <c r="E127">
-        <f t="shared" si="2"/>
+      <c r="F127">
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <f t="shared" si="7"/>
+        <v>68.714285714285708</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44028</v>
       </c>
@@ -9937,18 +10903,26 @@
         <v>76091</v>
       </c>
       <c r="C128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1131</v>
       </c>
       <c r="D128">
+        <f t="shared" si="6"/>
+        <v>1050.8571428571429</v>
+      </c>
+      <c r="E128">
         <v>5836</v>
       </c>
-      <c r="E128">
-        <f t="shared" si="2"/>
+      <c r="F128">
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <f t="shared" si="7"/>
+        <v>64.142857142857139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44029</v>
       </c>
@@ -9956,18 +10930,26 @@
         <v>77423</v>
       </c>
       <c r="C129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1332</v>
       </c>
       <c r="D129">
+        <f t="shared" si="6"/>
+        <v>1046.2857142857142</v>
+      </c>
+      <c r="E129">
         <v>5869</v>
       </c>
-      <c r="E129">
-        <f t="shared" si="2"/>
+      <c r="F129">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44030</v>
       </c>
@@ -9975,18 +10957,26 @@
         <v>78509</v>
       </c>
       <c r="C130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1086</v>
       </c>
       <c r="D130">
+        <f t="shared" si="6"/>
+        <v>1046.1428571428571</v>
+      </c>
+      <c r="E130">
         <v>5928</v>
       </c>
-      <c r="E130">
-        <f t="shared" si="2"/>
+      <c r="F130">
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <f t="shared" si="7"/>
+        <v>55.285714285714285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44031</v>
       </c>
@@ -9994,18 +10984,26 @@
         <v>79452</v>
       </c>
       <c r="C131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>943</v>
       </c>
       <c r="D131">
+        <f t="shared" si="6"/>
+        <v>1019.8571428571429</v>
+      </c>
+      <c r="E131">
         <v>5984</v>
       </c>
-      <c r="E131">
-        <f t="shared" si="2"/>
+      <c r="F131">
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <f t="shared" si="7"/>
+        <v>53.142857142857146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44032</v>
       </c>
@@ -10013,18 +11011,26 @@
         <v>80115</v>
       </c>
       <c r="C132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>663</v>
       </c>
       <c r="D132">
+        <f t="shared" si="6"/>
+        <v>997.42857142857144</v>
+      </c>
+      <c r="E132">
         <v>6036</v>
       </c>
-      <c r="E132">
-        <f t="shared" ref="E132:E195" si="4">D132-D131</f>
+      <c r="F132">
+        <f t="shared" ref="F132:F195" si="8">E132-E131</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <f t="shared" si="7"/>
+        <v>55.571428571428569</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44033</v>
       </c>
@@ -10032,18 +11038,26 @@
         <v>80441</v>
       </c>
       <c r="C133">
-        <f t="shared" ref="C133:C196" si="5">B133-B132</f>
+        <f t="shared" ref="C133:C196" si="9">B133-B132</f>
         <v>326</v>
       </c>
       <c r="D133">
+        <f t="shared" si="6"/>
+        <v>1030.5714285714287</v>
+      </c>
+      <c r="E133">
         <v>6089</v>
       </c>
-      <c r="E133">
-        <f t="shared" si="4"/>
+      <c r="F133">
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <f t="shared" si="7"/>
+        <v>54.857142857142854</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44034</v>
       </c>
@@ -10051,18 +11065,26 @@
         <v>81382</v>
       </c>
       <c r="C134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>941</v>
       </c>
       <c r="D134">
+        <f t="shared" si="6"/>
+        <v>980.71428571428567</v>
+      </c>
+      <c r="E134">
         <v>6152</v>
       </c>
-      <c r="E134">
-        <f t="shared" si="4"/>
+      <c r="F134">
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <f t="shared" si="7"/>
+        <v>53.428571428571431</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44035</v>
       </c>
@@ -10070,18 +11092,26 @@
         <v>83240</v>
       </c>
       <c r="C135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1858</v>
       </c>
       <c r="D135">
+        <f t="shared" si="6"/>
+        <v>917.42857142857144</v>
+      </c>
+      <c r="E135">
         <v>6211</v>
       </c>
-      <c r="E135">
-        <f t="shared" si="4"/>
+      <c r="F135">
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <f t="shared" si="7"/>
+        <v>54.285714285714285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44036</v>
       </c>
@@ -10089,18 +11119,26 @@
         <v>85042</v>
       </c>
       <c r="C136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1802</v>
       </c>
       <c r="D136">
+        <f t="shared" si="6"/>
+        <v>1021.2857142857143</v>
+      </c>
+      <c r="E136">
         <v>6237</v>
       </c>
-      <c r="E136">
-        <f t="shared" si="4"/>
+      <c r="F136">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <f t="shared" si="7"/>
+        <v>53.571428571428569</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44037</v>
       </c>
@@ -10108,18 +11146,26 @@
         <v>86752</v>
       </c>
       <c r="C137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1710</v>
       </c>
       <c r="D137">
+        <f t="shared" si="6"/>
+        <v>1088.4285714285713</v>
+      </c>
+      <c r="E137">
         <v>6299</v>
       </c>
-      <c r="E137">
-        <f t="shared" si="4"/>
+      <c r="F137">
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <f t="shared" si="7"/>
+        <v>52.571428571428569</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44038</v>
       </c>
@@ -10127,18 +11173,26 @@
         <v>88466</v>
       </c>
       <c r="C138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1714</v>
       </c>
       <c r="D138">
+        <f t="shared" ref="D138:D201" si="10">AVERAGE(C131:C137)</f>
+        <v>1177.5714285714287</v>
+      </c>
+      <c r="E138">
         <v>6352</v>
       </c>
-      <c r="E138">
-        <f t="shared" si="4"/>
+      <c r="F138">
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <f t="shared" ref="G138:G201" si="11">AVERAGE(F131:F137)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44039</v>
       </c>
@@ -10146,18 +11200,26 @@
         <v>89132</v>
       </c>
       <c r="C139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>666</v>
       </c>
       <c r="D139">
+        <f t="shared" si="10"/>
+        <v>1287.7142857142858</v>
+      </c>
+      <c r="E139">
         <v>6376</v>
       </c>
-      <c r="E139">
-        <f t="shared" si="4"/>
+      <c r="F139">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <f t="shared" si="11"/>
+        <v>52.571428571428569</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44040</v>
       </c>
@@ -10165,18 +11227,26 @@
         <v>89678</v>
       </c>
       <c r="C140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>546</v>
       </c>
       <c r="D140">
+        <f t="shared" si="10"/>
+        <v>1288.1428571428571</v>
+      </c>
+      <c r="E140">
         <v>6421</v>
       </c>
-      <c r="E140">
-        <f t="shared" si="4"/>
+      <c r="F140">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <f t="shared" si="11"/>
+        <v>48.571428571428569</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44041</v>
       </c>
@@ -10184,18 +11254,26 @@
         <v>91536</v>
       </c>
       <c r="C141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1858</v>
       </c>
       <c r="D141">
+        <f t="shared" si="10"/>
+        <v>1319.5714285714287</v>
+      </c>
+      <c r="E141">
         <v>6484</v>
       </c>
-      <c r="E141">
-        <f t="shared" si="4"/>
+      <c r="F141">
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <f t="shared" si="11"/>
+        <v>47.428571428571431</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44042</v>
       </c>
@@ -10203,18 +11281,26 @@
         <v>93373</v>
       </c>
       <c r="C142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1837</v>
       </c>
       <c r="D142">
+        <f t="shared" si="10"/>
+        <v>1450.5714285714287</v>
+      </c>
+      <c r="E142">
         <v>6526</v>
       </c>
-      <c r="E142">
-        <f t="shared" si="4"/>
+      <c r="F142">
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <f t="shared" si="11"/>
+        <v>47.428571428571431</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44043</v>
       </c>
@@ -10222,18 +11308,26 @@
         <v>95005</v>
       </c>
       <c r="C143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1632</v>
       </c>
       <c r="D143">
+        <f t="shared" si="10"/>
+        <v>1447.5714285714287</v>
+      </c>
+      <c r="E143">
         <v>6557</v>
       </c>
-      <c r="E143">
-        <f t="shared" si="4"/>
+      <c r="F143">
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44044</v>
       </c>
@@ -10241,18 +11335,26 @@
         <v>96746</v>
       </c>
       <c r="C144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1741</v>
       </c>
       <c r="D144">
+        <f t="shared" si="10"/>
+        <v>1423.2857142857142</v>
+      </c>
+      <c r="E144">
         <v>6597</v>
       </c>
-      <c r="E144">
-        <f t="shared" si="4"/>
+      <c r="F144">
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <f t="shared" si="11"/>
+        <v>45.714285714285715</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44045</v>
       </c>
@@ -10260,18 +11362,26 @@
         <v>97970</v>
       </c>
       <c r="C145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1224</v>
       </c>
       <c r="D145">
+        <f t="shared" si="10"/>
+        <v>1427.7142857142858</v>
+      </c>
+      <c r="E145">
         <v>6634</v>
       </c>
-      <c r="E145">
-        <f t="shared" si="4"/>
+      <c r="F145">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <f t="shared" si="11"/>
+        <v>42.571428571428569</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44046</v>
       </c>
@@ -10279,18 +11389,26 @@
         <v>98401</v>
       </c>
       <c r="C146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>431</v>
       </c>
       <c r="D146">
+        <f t="shared" si="10"/>
+        <v>1357.7142857142858</v>
+      </c>
+      <c r="E146">
         <v>6669</v>
       </c>
-      <c r="E146">
-        <f t="shared" si="4"/>
+      <c r="F146">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <f t="shared" si="11"/>
+        <v>40.285714285714285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44047</v>
       </c>
@@ -10298,18 +11416,26 @@
         <v>98833</v>
       </c>
       <c r="C147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>432</v>
       </c>
       <c r="D147">
+        <f t="shared" si="10"/>
+        <v>1324.1428571428571</v>
+      </c>
+      <c r="E147">
         <v>6717</v>
       </c>
-      <c r="E147">
-        <f t="shared" si="4"/>
+      <c r="F147">
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <f t="shared" si="11"/>
+        <v>41.857142857142854</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44048</v>
       </c>
@@ -10317,18 +11443,26 @@
         <v>100321</v>
       </c>
       <c r="C148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1488</v>
       </c>
       <c r="D148">
+        <f t="shared" si="10"/>
+        <v>1307.8571428571429</v>
+      </c>
+      <c r="E148">
         <v>6758</v>
       </c>
-      <c r="E148">
-        <f t="shared" si="4"/>
+      <c r="F148">
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <f t="shared" si="11"/>
+        <v>42.285714285714285</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44049</v>
       </c>
@@ -10336,18 +11470,26 @@
         <v>101395</v>
       </c>
       <c r="C149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1074</v>
       </c>
       <c r="D149">
+        <f t="shared" si="10"/>
+        <v>1255</v>
+      </c>
+      <c r="E149">
         <v>6828</v>
       </c>
-      <c r="E149">
-        <f t="shared" si="4"/>
+      <c r="F149">
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <f t="shared" si="11"/>
+        <v>39.142857142857146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44050</v>
       </c>
@@ -10355,18 +11497,26 @@
         <v>102872</v>
       </c>
       <c r="C150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1477</v>
       </c>
       <c r="D150">
+        <f t="shared" si="10"/>
+        <v>1146</v>
+      </c>
+      <c r="E150">
         <v>6867</v>
       </c>
-      <c r="E150">
-        <f t="shared" si="4"/>
+      <c r="F150">
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <f t="shared" si="11"/>
+        <v>43.142857142857146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44051</v>
       </c>
@@ -10374,18 +11524,26 @@
         <v>104113</v>
       </c>
       <c r="C151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1241</v>
       </c>
       <c r="D151">
+        <f t="shared" si="10"/>
+        <v>1123.8571428571429</v>
+      </c>
+      <c r="E151">
         <v>6920</v>
       </c>
-      <c r="E151">
-        <f t="shared" si="4"/>
+      <c r="F151">
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <f t="shared" si="11"/>
+        <v>44.285714285714285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44052</v>
       </c>
@@ -10393,18 +11551,26 @@
         <v>105381</v>
       </c>
       <c r="C152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1268</v>
       </c>
       <c r="D152">
+        <f t="shared" si="10"/>
+        <v>1052.4285714285713</v>
+      </c>
+      <c r="E152">
         <v>6970</v>
       </c>
-      <c r="E152">
-        <f t="shared" si="4"/>
+      <c r="F152">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <f t="shared" si="11"/>
+        <v>46.142857142857146</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44053</v>
       </c>
@@ -10412,18 +11578,26 @@
         <v>105381</v>
       </c>
       <c r="C153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D153">
+        <f t="shared" si="10"/>
+        <v>1058.7142857142858</v>
+      </c>
+      <c r="E153">
         <v>6970</v>
       </c>
-      <c r="E153">
-        <f t="shared" si="4"/>
+      <c r="F153">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44054</v>
       </c>
@@ -10431,18 +11605,26 @@
         <v>105982</v>
       </c>
       <c r="C154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>601</v>
       </c>
       <c r="D154">
+        <f t="shared" si="10"/>
+        <v>997.14285714285711</v>
+      </c>
+      <c r="E154">
         <v>7008</v>
       </c>
-      <c r="E154">
-        <f t="shared" si="4"/>
+      <c r="F154">
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <f t="shared" si="11"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44055</v>
       </c>
@@ -10450,18 +11632,26 @@
         <v>107375</v>
       </c>
       <c r="C155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1393</v>
       </c>
       <c r="D155">
+        <f t="shared" si="10"/>
+        <v>1021.2857142857143</v>
+      </c>
+      <c r="E155">
         <v>7049</v>
       </c>
-      <c r="E155">
-        <f t="shared" si="4"/>
+      <c r="F155">
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <f t="shared" si="11"/>
+        <v>41.571428571428569</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44056</v>
       </c>
@@ -10469,18 +11659,26 @@
         <v>108842</v>
       </c>
       <c r="C156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1467</v>
       </c>
       <c r="D156">
+        <f t="shared" si="10"/>
+        <v>1007.7142857142857</v>
+      </c>
+      <c r="E156">
         <v>7084</v>
       </c>
-      <c r="E156">
-        <f t="shared" si="4"/>
+      <c r="F156">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <f t="shared" si="11"/>
+        <v>41.571428571428569</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44057</v>
       </c>
@@ -10488,18 +11686,26 @@
         <v>110409</v>
       </c>
       <c r="C157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1567</v>
       </c>
       <c r="D157">
+        <f t="shared" si="10"/>
+        <v>1063.8571428571429</v>
+      </c>
+      <c r="E157">
         <v>7111</v>
       </c>
-      <c r="E157">
-        <f t="shared" si="4"/>
+      <c r="F157">
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <f t="shared" si="11"/>
+        <v>36.571428571428569</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44058</v>
       </c>
@@ -10507,18 +11713,26 @@
         <v>111773</v>
       </c>
       <c r="C158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1364</v>
       </c>
       <c r="D158">
+        <f t="shared" si="10"/>
+        <v>1076.7142857142858</v>
+      </c>
+      <c r="E158">
         <v>7156</v>
       </c>
-      <c r="E158">
-        <f t="shared" si="4"/>
+      <c r="F158">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <f t="shared" si="11"/>
+        <v>34.857142857142854</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44059</v>
       </c>
@@ -10526,18 +11740,26 @@
         <v>112958</v>
       </c>
       <c r="C159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1185</v>
       </c>
       <c r="D159">
+        <f t="shared" si="10"/>
+        <v>1094.2857142857142</v>
+      </c>
+      <c r="E159">
         <v>7188</v>
       </c>
-      <c r="E159">
-        <f t="shared" si="4"/>
+      <c r="F159">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <f t="shared" si="11"/>
+        <v>33.714285714285715</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44060</v>
       </c>
@@ -10545,18 +11767,26 @@
         <v>113183</v>
       </c>
       <c r="C160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>225</v>
       </c>
       <c r="D160">
+        <f t="shared" si="10"/>
+        <v>1082.4285714285713</v>
+      </c>
+      <c r="E160">
         <v>7210</v>
       </c>
-      <c r="E160">
-        <f t="shared" si="4"/>
+      <c r="F160">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <f t="shared" si="11"/>
+        <v>31.142857142857142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44061</v>
       </c>
@@ -10564,18 +11794,26 @@
         <v>113788</v>
       </c>
       <c r="C161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>605</v>
       </c>
       <c r="D161">
+        <f t="shared" si="10"/>
+        <v>1114.5714285714287</v>
+      </c>
+      <c r="E161">
         <v>7252</v>
       </c>
-      <c r="E161">
-        <f t="shared" si="4"/>
+      <c r="F161">
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <f t="shared" si="11"/>
+        <v>34.285714285714285</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44062</v>
       </c>
@@ -10583,18 +11821,26 @@
         <v>115217</v>
       </c>
       <c r="C162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1429</v>
       </c>
       <c r="D162">
+        <f t="shared" si="10"/>
+        <v>1115.1428571428571</v>
+      </c>
+      <c r="E162">
         <v>7280</v>
       </c>
-      <c r="E162">
-        <f t="shared" si="4"/>
+      <c r="F162">
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <f t="shared" si="11"/>
+        <v>34.857142857142854</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44063</v>
       </c>
@@ -10602,18 +11848,26 @@
         <v>116359</v>
       </c>
       <c r="C163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1142</v>
       </c>
       <c r="D163">
+        <f t="shared" si="10"/>
+        <v>1120.2857142857142</v>
+      </c>
+      <c r="E163">
         <v>7303</v>
       </c>
-      <c r="E163">
-        <f t="shared" si="4"/>
+      <c r="F163">
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <f t="shared" si="11"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44064</v>
       </c>
@@ -10621,18 +11875,26 @@
         <v>117431</v>
       </c>
       <c r="C164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1072</v>
       </c>
       <c r="D164">
+        <f t="shared" si="10"/>
+        <v>1073.8571428571429</v>
+      </c>
+      <c r="E164">
         <v>7335</v>
       </c>
-      <c r="E164">
-        <f t="shared" si="4"/>
+      <c r="F164">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <f t="shared" si="11"/>
+        <v>31.285714285714285</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44065</v>
       </c>
@@ -10640,18 +11902,26 @@
         <v>118027</v>
       </c>
       <c r="C165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>596</v>
       </c>
       <c r="D165">
+        <f t="shared" si="10"/>
+        <v>1003.1428571428571</v>
+      </c>
+      <c r="E165">
         <v>7364</v>
       </c>
-      <c r="E165">
-        <f t="shared" si="4"/>
+      <c r="F165">
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44066</v>
       </c>
@@ -10659,18 +11929,26 @@
         <v>119140</v>
       </c>
       <c r="C166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1113</v>
       </c>
       <c r="D166">
+        <f t="shared" si="10"/>
+        <v>893.42857142857144</v>
+      </c>
+      <c r="E166">
         <v>7390</v>
       </c>
-      <c r="E166">
-        <f t="shared" si="4"/>
+      <c r="F166">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <f t="shared" si="11"/>
+        <v>29.714285714285715</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44067</v>
       </c>
@@ -10678,18 +11956,26 @@
         <v>119357</v>
       </c>
       <c r="C167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>217</v>
       </c>
       <c r="D167">
+        <f t="shared" si="10"/>
+        <v>883.14285714285711</v>
+      </c>
+      <c r="E167">
         <v>7399</v>
       </c>
-      <c r="E167">
-        <f t="shared" si="4"/>
+      <c r="F167">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <f t="shared" si="11"/>
+        <v>28.857142857142858</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44068</v>
       </c>
@@ -10697,18 +11983,26 @@
         <v>119958</v>
       </c>
       <c r="C168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>601</v>
       </c>
       <c r="D168">
+        <f t="shared" si="10"/>
+        <v>882</v>
+      </c>
+      <c r="E168">
         <v>7425</v>
       </c>
-      <c r="E168">
-        <f t="shared" si="4"/>
+      <c r="F168">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44069</v>
       </c>
@@ -10716,18 +12010,26 @@
         <v>121078</v>
       </c>
       <c r="C169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1120</v>
       </c>
       <c r="D169">
+        <f t="shared" si="10"/>
+        <v>881.42857142857144</v>
+      </c>
+      <c r="E169">
         <v>7460</v>
       </c>
-      <c r="E169">
-        <f t="shared" si="4"/>
+      <c r="F169">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <f t="shared" si="11"/>
+        <v>24.714285714285715</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44070</v>
       </c>
@@ -10735,18 +12037,26 @@
         <v>122147</v>
       </c>
       <c r="C170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1069</v>
       </c>
       <c r="D170">
+        <f t="shared" si="10"/>
+        <v>837.28571428571433</v>
+      </c>
+      <c r="E170">
         <v>7480</v>
       </c>
-      <c r="E170">
-        <f t="shared" si="4"/>
+      <c r="F170">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <f t="shared" si="11"/>
+        <v>25.714285714285715</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44071</v>
       </c>
@@ -10754,18 +12064,26 @@
         <v>123146</v>
       </c>
       <c r="C171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>999</v>
       </c>
       <c r="D171">
+        <f t="shared" si="10"/>
+        <v>826.85714285714289</v>
+      </c>
+      <c r="E171">
         <v>7512</v>
       </c>
-      <c r="E171">
-        <f t="shared" si="4"/>
+      <c r="F171">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <f t="shared" si="11"/>
+        <v>25.285714285714285</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44072</v>
       </c>
@@ -10773,18 +12091,26 @@
         <v>124151</v>
       </c>
       <c r="C172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1005</v>
       </c>
       <c r="D172">
+        <f t="shared" si="10"/>
+        <v>816.42857142857144</v>
+      </c>
+      <c r="E172">
         <v>7547</v>
       </c>
-      <c r="E172">
-        <f t="shared" si="4"/>
+      <c r="F172">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <f t="shared" si="11"/>
+        <v>25.285714285714285</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44073</v>
       </c>
@@ -10792,18 +12118,26 @@
         <v>125094</v>
       </c>
       <c r="C173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>943</v>
       </c>
       <c r="D173">
+        <f t="shared" si="10"/>
+        <v>874.85714285714289</v>
+      </c>
+      <c r="E173">
         <v>7574</v>
       </c>
-      <c r="E173">
-        <f t="shared" si="4"/>
+      <c r="F173">
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <f t="shared" si="11"/>
+        <v>26.142857142857142</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44074</v>
       </c>
@@ -10811,18 +12145,26 @@
         <v>125539</v>
       </c>
       <c r="C174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>445</v>
       </c>
       <c r="D174">
+        <f t="shared" si="10"/>
+        <v>850.57142857142856</v>
+      </c>
+      <c r="E174">
         <v>7593</v>
       </c>
-      <c r="E174">
-        <f t="shared" si="4"/>
+      <c r="F174">
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <f t="shared" si="11"/>
+        <v>26.285714285714285</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44075</v>
       </c>
@@ -10830,18 +12172,26 @@
         <v>127287</v>
       </c>
       <c r="C175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1748</v>
       </c>
       <c r="D175">
+        <f t="shared" si="10"/>
+        <v>883.14285714285711</v>
+      </c>
+      <c r="E175">
         <v>7614</v>
       </c>
-      <c r="E175">
-        <f t="shared" si="4"/>
+      <c r="F175">
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <f t="shared" si="11"/>
+        <v>27.714285714285715</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44076</v>
       </c>
@@ -10849,18 +12199,26 @@
         <v>128724</v>
       </c>
       <c r="C176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1437</v>
       </c>
       <c r="D176">
+        <f t="shared" si="10"/>
+        <v>1047</v>
+      </c>
+      <c r="E176">
         <v>7656</v>
       </c>
-      <c r="E176">
-        <f t="shared" si="4"/>
+      <c r="F176">
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44077</v>
       </c>
@@ -10868,18 +12226,26 @@
         <v>130199</v>
       </c>
       <c r="C177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1475</v>
       </c>
       <c r="D177">
+        <f t="shared" si="10"/>
+        <v>1092.2857142857142</v>
+      </c>
+      <c r="E177">
         <v>7619</v>
       </c>
-      <c r="E177">
-        <f t="shared" si="4"/>
+      <c r="F177">
+        <f t="shared" si="8"/>
         <v>-37</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44078</v>
       </c>
@@ -10887,18 +12253,26 @@
         <v>131230</v>
       </c>
       <c r="C178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1031</v>
       </c>
       <c r="D178">
+        <f t="shared" si="10"/>
+        <v>1150.2857142857142</v>
+      </c>
+      <c r="E178">
         <v>7645</v>
       </c>
-      <c r="E178">
-        <f t="shared" si="4"/>
+      <c r="F178">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <f t="shared" si="11"/>
+        <v>19.857142857142858</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44079</v>
       </c>
@@ -10906,18 +12280,26 @@
         <v>131961</v>
       </c>
       <c r="C179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>731</v>
       </c>
       <c r="D179">
+        <f t="shared" si="10"/>
+        <v>1154.8571428571429</v>
+      </c>
+      <c r="E179">
         <v>7670</v>
       </c>
-      <c r="E179">
-        <f t="shared" si="4"/>
+      <c r="F179">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44080</v>
       </c>
@@ -10925,18 +12307,26 @@
         <v>132152</v>
       </c>
       <c r="C180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>191</v>
       </c>
       <c r="D180">
+        <f t="shared" si="10"/>
+        <v>1115.7142857142858</v>
+      </c>
+      <c r="E180">
         <v>7702</v>
       </c>
-      <c r="E180">
-        <f t="shared" si="4"/>
+      <c r="F180">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <f t="shared" si="11"/>
+        <v>17.571428571428573</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44081</v>
       </c>
@@ -10944,18 +12334,26 @@
         <v>132420</v>
       </c>
       <c r="C181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>268</v>
       </c>
       <c r="D181">
+        <f t="shared" si="10"/>
+        <v>1008.2857142857143</v>
+      </c>
+      <c r="E181">
         <v>7721</v>
       </c>
-      <c r="E181">
-        <f t="shared" si="4"/>
+      <c r="F181">
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <f t="shared" si="11"/>
+        <v>18.285714285714285</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44082</v>
       </c>
@@ -10963,18 +12361,26 @@
         <v>132590</v>
       </c>
       <c r="C182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
       <c r="D182">
+        <f t="shared" si="10"/>
+        <v>983</v>
+      </c>
+      <c r="E182">
         <v>7741</v>
       </c>
-      <c r="E182">
-        <f t="shared" si="4"/>
+      <c r="F182">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <f t="shared" si="11"/>
+        <v>18.285714285714285</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44083</v>
       </c>
@@ -10982,18 +12388,26 @@
         <v>133579</v>
       </c>
       <c r="C183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>989</v>
       </c>
       <c r="D183">
+        <f t="shared" si="10"/>
+        <v>757.57142857142856</v>
+      </c>
+      <c r="E183">
         <v>7764</v>
       </c>
-      <c r="E183">
-        <f t="shared" si="4"/>
+      <c r="F183">
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <f t="shared" si="11"/>
+        <v>18.142857142857142</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44084</v>
       </c>
@@ -11001,18 +12415,26 @@
         <v>134619</v>
       </c>
       <c r="C184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1040</v>
       </c>
       <c r="D184">
+        <f t="shared" si="10"/>
+        <v>693.57142857142856</v>
+      </c>
+      <c r="E184">
         <v>7792</v>
       </c>
-      <c r="E184">
-        <f t="shared" si="4"/>
+      <c r="F184">
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <f t="shared" si="11"/>
+        <v>15.428571428571429</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44085</v>
       </c>
@@ -11020,18 +12442,26 @@
         <v>135643</v>
       </c>
       <c r="C185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1024</v>
       </c>
       <c r="D185">
+        <f t="shared" si="10"/>
+        <v>631.42857142857144</v>
+      </c>
+      <c r="E185">
         <v>7817</v>
       </c>
-      <c r="E185">
-        <f t="shared" si="4"/>
+      <c r="F185">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <f t="shared" si="11"/>
+        <v>24.714285714285715</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44086</v>
       </c>
@@ -11039,18 +12469,26 @@
         <v>136413</v>
       </c>
       <c r="C186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>770</v>
       </c>
       <c r="D186">
+        <f t="shared" si="10"/>
+        <v>630.42857142857144</v>
+      </c>
+      <c r="E186">
         <v>7852</v>
       </c>
-      <c r="E186">
-        <f t="shared" si="4"/>
+      <c r="F186">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <f t="shared" si="11"/>
+        <v>24.571428571428573</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44087</v>
       </c>
@@ -11058,18 +12496,26 @@
         <v>136672</v>
       </c>
       <c r="C187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>259</v>
       </c>
       <c r="D187">
+        <f t="shared" si="10"/>
+        <v>636</v>
+      </c>
+      <c r="E187">
         <v>7874</v>
       </c>
-      <c r="E187">
-        <f t="shared" si="4"/>
+      <c r="F187">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44088</v>
       </c>
@@ -11077,18 +12523,26 @@
         <v>136853</v>
       </c>
       <c r="C188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>181</v>
       </c>
       <c r="D188">
+        <f t="shared" si="10"/>
+        <v>645.71428571428567</v>
+      </c>
+      <c r="E188">
         <v>7888</v>
       </c>
-      <c r="E188">
-        <f t="shared" si="4"/>
+      <c r="F188">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <f t="shared" si="11"/>
+        <v>24.571428571428573</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44089</v>
       </c>
@@ -11096,18 +12550,26 @@
         <v>137869</v>
       </c>
       <c r="C189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1016</v>
       </c>
       <c r="D189">
+        <f t="shared" si="10"/>
+        <v>633.28571428571433</v>
+      </c>
+      <c r="E189">
         <v>7914</v>
       </c>
-      <c r="E189">
-        <f t="shared" si="4"/>
+      <c r="F189">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <f t="shared" si="11"/>
+        <v>23.857142857142858</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44090</v>
       </c>
@@ -11115,18 +12577,26 @@
         <v>138568</v>
       </c>
       <c r="C190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>699</v>
       </c>
       <c r="D190">
+        <f t="shared" si="10"/>
+        <v>754.14285714285711</v>
+      </c>
+      <c r="E190">
         <v>7933</v>
       </c>
-      <c r="E190">
-        <f t="shared" si="4"/>
+      <c r="F190">
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <f t="shared" si="11"/>
+        <v>24.714285714285715</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44091</v>
       </c>
@@ -11134,18 +12604,26 @@
         <v>139325</v>
       </c>
       <c r="C191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>757</v>
       </c>
       <c r="D191">
+        <f t="shared" si="10"/>
+        <v>712.71428571428567</v>
+      </c>
+      <c r="E191">
         <v>7954</v>
       </c>
-      <c r="E191">
-        <f t="shared" si="4"/>
+      <c r="F191">
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <f t="shared" si="11"/>
+        <v>24.142857142857142</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44092</v>
       </c>
@@ -11153,18 +12631,26 @@
         <v>140235</v>
       </c>
       <c r="C192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>910</v>
       </c>
       <c r="D192">
+        <f t="shared" si="10"/>
+        <v>672.28571428571433</v>
+      </c>
+      <c r="E192">
         <v>7971</v>
       </c>
-      <c r="E192">
-        <f t="shared" si="4"/>
+      <c r="F192">
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <f t="shared" si="11"/>
+        <v>23.142857142857142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44093</v>
       </c>
@@ -11172,18 +12658,26 @@
         <v>141042</v>
       </c>
       <c r="C193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>807</v>
       </c>
       <c r="D193">
+        <f t="shared" si="10"/>
+        <v>656</v>
+      </c>
+      <c r="E193">
         <v>8004</v>
       </c>
-      <c r="E193">
-        <f t="shared" si="4"/>
+      <c r="F193">
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44094</v>
       </c>
@@ -11191,18 +12685,26 @@
         <v>141517</v>
       </c>
       <c r="C194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>475</v>
       </c>
       <c r="D194">
+        <f t="shared" si="10"/>
+        <v>661.28571428571433</v>
+      </c>
+      <c r="E194">
         <v>8016</v>
       </c>
-      <c r="E194">
-        <f t="shared" si="4"/>
+      <c r="F194">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <f t="shared" si="11"/>
+        <v>21.714285714285715</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44095</v>
       </c>
@@ -11210,18 +12712,26 @@
         <v>141777</v>
       </c>
       <c r="C195">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="D195">
+        <f t="shared" si="10"/>
+        <v>692.14285714285711</v>
+      </c>
+      <c r="E195">
         <v>8025</v>
       </c>
-      <c r="E195">
-        <f t="shared" si="4"/>
+      <c r="F195">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <f t="shared" si="11"/>
+        <v>20.285714285714285</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44096</v>
       </c>
@@ -11229,18 +12739,26 @@
         <v>142488</v>
       </c>
       <c r="C196">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>711</v>
       </c>
       <c r="D196">
+        <f t="shared" si="10"/>
+        <v>703.42857142857144</v>
+      </c>
+      <c r="E196">
         <v>8055</v>
       </c>
-      <c r="E196">
-        <f t="shared" ref="E196:E259" si="6">D196-D195</f>
+      <c r="F196">
+        <f t="shared" ref="F196:F259" si="12">E196-E195</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <f t="shared" si="11"/>
+        <v>19.571428571428573</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44097</v>
       </c>
@@ -11248,18 +12766,26 @@
         <v>143165</v>
       </c>
       <c r="C197">
-        <f t="shared" ref="C197:C260" si="7">B197-B196</f>
+        <f t="shared" ref="C197:C260" si="13">B197-B196</f>
         <v>677</v>
       </c>
       <c r="D197">
+        <f t="shared" si="10"/>
+        <v>659.85714285714289</v>
+      </c>
+      <c r="E197">
         <v>8085</v>
       </c>
-      <c r="E197">
-        <f t="shared" si="6"/>
+      <c r="F197">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <f t="shared" si="11"/>
+        <v>20.142857142857142</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44098</v>
       </c>
@@ -11267,18 +12793,26 @@
         <v>143703</v>
       </c>
       <c r="C198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>538</v>
       </c>
       <c r="D198">
+        <f t="shared" si="10"/>
+        <v>656.71428571428567</v>
+      </c>
+      <c r="E198">
         <v>8110</v>
       </c>
-      <c r="E198">
-        <f t="shared" si="6"/>
+      <c r="F198">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <f t="shared" si="11"/>
+        <v>21.714285714285715</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44099</v>
       </c>
@@ -11286,18 +12820,26 @@
         <v>144268</v>
       </c>
       <c r="C199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>565</v>
       </c>
       <c r="D199">
+        <f t="shared" si="10"/>
+        <v>625.42857142857144</v>
+      </c>
+      <c r="E199">
         <v>8129</v>
       </c>
-      <c r="E199">
-        <f t="shared" si="6"/>
+      <c r="F199">
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <f t="shared" si="11"/>
+        <v>22.285714285714285</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44100</v>
       </c>
@@ -11305,18 +12847,26 @@
         <v>144940</v>
       </c>
       <c r="C200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>672</v>
       </c>
       <c r="D200">
+        <f t="shared" si="10"/>
+        <v>576.14285714285711</v>
+      </c>
+      <c r="E200">
         <v>8156</v>
       </c>
-      <c r="E200">
-        <f t="shared" si="6"/>
+      <c r="F200">
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <f t="shared" si="11"/>
+        <v>22.571428571428573</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44101</v>
       </c>
@@ -11324,18 +12874,26 @@
         <v>145016</v>
       </c>
       <c r="C201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="D201">
+        <f t="shared" si="10"/>
+        <v>556.85714285714289</v>
+      </c>
+      <c r="E201">
         <v>8174</v>
       </c>
-      <c r="E201">
-        <f t="shared" si="6"/>
+      <c r="F201">
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <f t="shared" si="11"/>
+        <v>21.714285714285715</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44102</v>
       </c>
@@ -11343,18 +12901,26 @@
         <v>145096</v>
       </c>
       <c r="C202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="D202">
+        <f t="shared" ref="D202:D265" si="14">AVERAGE(C195:C201)</f>
+        <v>499.85714285714283</v>
+      </c>
+      <c r="E202">
         <v>8190</v>
       </c>
-      <c r="E202">
-        <f t="shared" si="6"/>
+      <c r="F202">
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <f t="shared" ref="G202:G265" si="15">AVERAGE(F195:F201)</f>
+        <v>22.571428571428573</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44103</v>
       </c>
@@ -11362,18 +12928,26 @@
         <v>146325</v>
       </c>
       <c r="C203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1229</v>
       </c>
       <c r="D203">
+        <f t="shared" si="14"/>
+        <v>474.14285714285717</v>
+      </c>
+      <c r="E203">
         <v>8222</v>
       </c>
-      <c r="E203">
-        <f t="shared" si="6"/>
+      <c r="F203">
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <f t="shared" si="15"/>
+        <v>23.571428571428573</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44104</v>
       </c>
@@ -11381,18 +12955,26 @@
         <v>147171</v>
       </c>
       <c r="C204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>846</v>
       </c>
       <c r="D204">
+        <f t="shared" si="14"/>
+        <v>548.14285714285711</v>
+      </c>
+      <c r="E204">
         <v>8251</v>
       </c>
-      <c r="E204">
-        <f t="shared" si="6"/>
+      <c r="F204">
+        <f t="shared" si="12"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <f t="shared" si="15"/>
+        <v>23.857142857142858</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44105</v>
       </c>
@@ -11400,18 +12982,26 @@
         <v>147872</v>
       </c>
       <c r="C205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>701</v>
       </c>
       <c r="D205">
+        <f t="shared" si="14"/>
+        <v>572.28571428571433</v>
+      </c>
+      <c r="E205">
         <v>8279</v>
       </c>
-      <c r="E205">
-        <f t="shared" si="6"/>
+      <c r="F205">
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <f t="shared" si="15"/>
+        <v>23.714285714285715</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44106</v>
       </c>
@@ -11419,18 +13009,26 @@
         <v>148737</v>
       </c>
       <c r="C206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>865</v>
       </c>
       <c r="D206">
+        <f t="shared" si="14"/>
+        <v>595.57142857142856</v>
+      </c>
+      <c r="E206">
         <v>8299</v>
       </c>
-      <c r="E206">
-        <f t="shared" si="6"/>
+      <c r="F206">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <f t="shared" si="15"/>
+        <v>24.142857142857142</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44107</v>
       </c>
@@ -11438,18 +13036,26 @@
         <v>149349</v>
       </c>
       <c r="C207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>612</v>
       </c>
       <c r="D207">
+        <f t="shared" si="14"/>
+        <v>638.42857142857144</v>
+      </c>
+      <c r="E207">
         <v>8318</v>
       </c>
-      <c r="E207">
-        <f t="shared" si="6"/>
+      <c r="F207">
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <f t="shared" si="15"/>
+        <v>24.285714285714285</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44108</v>
       </c>
@@ -11457,18 +13063,26 @@
         <v>149417</v>
       </c>
       <c r="C208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
       <c r="D208">
+        <f t="shared" si="14"/>
+        <v>629.85714285714289</v>
+      </c>
+      <c r="E208">
         <v>8333</v>
       </c>
-      <c r="E208">
-        <f t="shared" si="6"/>
+      <c r="F208">
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <f t="shared" si="15"/>
+        <v>23.142857142857142</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44109</v>
       </c>
@@ -11476,18 +13090,26 @@
         <v>149454</v>
       </c>
       <c r="C209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="D209">
+        <f t="shared" si="14"/>
+        <v>628.71428571428567</v>
+      </c>
+      <c r="E209">
         <v>8340</v>
       </c>
-      <c r="E209">
-        <f t="shared" si="6"/>
+      <c r="F209">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <f t="shared" si="15"/>
+        <v>22.714285714285715</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44110</v>
       </c>
@@ -11495,18 +13117,26 @@
         <v>150217</v>
       </c>
       <c r="C210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>763</v>
       </c>
       <c r="D210">
+        <f t="shared" si="14"/>
+        <v>622.57142857142856</v>
+      </c>
+      <c r="E210">
         <v>8356</v>
       </c>
-      <c r="E210">
-        <f t="shared" si="6"/>
+      <c r="F210">
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <f t="shared" si="15"/>
+        <v>21.428571428571427</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44111</v>
       </c>
@@ -11514,18 +13144,26 @@
         <v>151139</v>
       </c>
       <c r="C211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>922</v>
       </c>
       <c r="D211">
+        <f t="shared" si="14"/>
+        <v>556</v>
+      </c>
+      <c r="E211">
         <v>8379</v>
       </c>
-      <c r="E211">
-        <f t="shared" si="6"/>
+      <c r="F211">
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <f t="shared" si="15"/>
+        <v>19.142857142857142</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44112</v>
       </c>
@@ -11533,18 +13171,26 @@
         <v>151736</v>
       </c>
       <c r="C212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>597</v>
       </c>
       <c r="D212">
+        <f t="shared" si="14"/>
+        <v>566.85714285714289</v>
+      </c>
+      <c r="E212">
         <v>8387</v>
       </c>
-      <c r="E212">
-        <f t="shared" si="6"/>
+      <c r="F212">
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <f t="shared" si="15"/>
+        <v>18.285714285714285</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44113</v>
       </c>
@@ -11552,18 +13198,26 @@
         <v>152414</v>
       </c>
       <c r="C213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>678</v>
       </c>
       <c r="D213">
+        <f t="shared" si="14"/>
+        <v>552</v>
+      </c>
+      <c r="E213">
         <v>8397</v>
       </c>
-      <c r="E213">
-        <f t="shared" si="6"/>
+      <c r="F213">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <f t="shared" si="15"/>
+        <v>15.428571428571429</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44114</v>
       </c>
@@ -11571,18 +13225,26 @@
         <v>152998</v>
       </c>
       <c r="C214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>584</v>
       </c>
       <c r="D214">
+        <f t="shared" si="14"/>
+        <v>525.28571428571433</v>
+      </c>
+      <c r="E214">
         <v>8408</v>
       </c>
-      <c r="E214">
-        <f t="shared" si="6"/>
+      <c r="F214">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44115</v>
       </c>
@@ -11590,18 +13252,26 @@
         <v>153144</v>
       </c>
       <c r="C215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>146</v>
       </c>
       <c r="D215">
+        <f t="shared" si="14"/>
+        <v>521.28571428571433</v>
+      </c>
+      <c r="E215">
         <v>8411</v>
       </c>
-      <c r="E215">
-        <f t="shared" si="6"/>
+      <c r="F215">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <f t="shared" si="15"/>
+        <v>12.857142857142858</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44116</v>
       </c>
@@ -11609,18 +13279,26 @@
         <v>153222</v>
       </c>
       <c r="C216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>78</v>
       </c>
       <c r="D216">
+        <f t="shared" si="14"/>
+        <v>532.42857142857144</v>
+      </c>
+      <c r="E216">
         <v>8414</v>
       </c>
-      <c r="E216">
-        <f t="shared" si="6"/>
+      <c r="F216">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <f t="shared" si="15"/>
+        <v>11.142857142857142</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44117</v>
       </c>
@@ -11628,18 +13306,26 @@
         <v>153299</v>
       </c>
       <c r="C217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>77</v>
       </c>
       <c r="D217">
+        <f t="shared" si="14"/>
+        <v>538.28571428571433</v>
+      </c>
+      <c r="E217">
         <v>8417</v>
       </c>
-      <c r="E217">
-        <f t="shared" si="6"/>
+      <c r="F217">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <f t="shared" si="15"/>
+        <v>10.571428571428571</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44118</v>
       </c>
@@ -11647,18 +13333,26 @@
         <v>154041</v>
       </c>
       <c r="C218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>742</v>
       </c>
       <c r="D218">
+        <f t="shared" si="14"/>
+        <v>440.28571428571428</v>
+      </c>
+      <c r="E218">
         <v>8438</v>
       </c>
-      <c r="E218">
-        <f t="shared" si="6"/>
+      <c r="F218">
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <f t="shared" si="15"/>
+        <v>8.7142857142857135</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44119</v>
       </c>
@@ -11666,18 +13360,26 @@
         <v>154866</v>
       </c>
       <c r="C219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>825</v>
       </c>
       <c r="D219">
+        <f t="shared" si="14"/>
+        <v>414.57142857142856</v>
+      </c>
+      <c r="E219">
         <v>8456</v>
       </c>
-      <c r="E219">
-        <f t="shared" si="6"/>
+      <c r="F219">
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <f t="shared" si="15"/>
+        <v>8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44120</v>
       </c>
@@ -11685,18 +13387,26 @@
         <v>155520</v>
       </c>
       <c r="C220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>654</v>
       </c>
       <c r="D220">
+        <f t="shared" si="14"/>
+        <v>447.14285714285717</v>
+      </c>
+      <c r="E220">
         <v>8469</v>
       </c>
-      <c r="E220">
-        <f t="shared" si="6"/>
+      <c r="F220">
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <f t="shared" si="15"/>
+        <v>9.8571428571428577</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44121</v>
       </c>
@@ -11704,18 +13414,26 @@
         <v>155923</v>
       </c>
       <c r="C221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>403</v>
       </c>
       <c r="D221">
+        <f t="shared" si="14"/>
+        <v>443.71428571428572</v>
+      </c>
+      <c r="E221">
         <v>8480</v>
       </c>
-      <c r="E221">
-        <f t="shared" si="6"/>
+      <c r="F221">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G221">
+        <f t="shared" si="15"/>
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44122</v>
       </c>
@@ -11723,18 +13441,26 @@
         <v>156029</v>
       </c>
       <c r="C222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>106</v>
       </c>
       <c r="D222">
+        <f t="shared" si="14"/>
+        <v>417.85714285714283</v>
+      </c>
+      <c r="E222">
         <v>8487</v>
       </c>
-      <c r="E222">
-        <f t="shared" si="6"/>
+      <c r="F222">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <f t="shared" si="15"/>
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44123</v>
       </c>
@@ -11742,18 +13468,26 @@
         <v>156130</v>
       </c>
       <c r="C223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>101</v>
       </c>
       <c r="D223">
+        <f t="shared" si="14"/>
+        <v>412.14285714285717</v>
+      </c>
+      <c r="E223">
         <v>8490</v>
       </c>
-      <c r="E223">
-        <f t="shared" si="6"/>
+      <c r="F223">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <f t="shared" si="15"/>
+        <v>10.857142857142858</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44124</v>
       </c>
@@ -11761,18 +13495,26 @@
         <v>156794</v>
       </c>
       <c r="C224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>664</v>
       </c>
       <c r="D224">
+        <f t="shared" si="14"/>
+        <v>415.42857142857144</v>
+      </c>
+      <c r="E224">
         <v>8505</v>
       </c>
-      <c r="E224">
-        <f t="shared" si="6"/>
+      <c r="F224">
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G224">
+        <f t="shared" si="15"/>
+        <v>10.857142857142858</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44125</v>
       </c>
@@ -11780,18 +13522,26 @@
         <v>157418</v>
       </c>
       <c r="C225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>624</v>
       </c>
       <c r="D225">
+        <f t="shared" si="14"/>
+        <v>499.28571428571428</v>
+      </c>
+      <c r="E225">
         <v>8519</v>
       </c>
-      <c r="E225">
-        <f t="shared" si="6"/>
+      <c r="F225">
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G225">
+        <f t="shared" si="15"/>
+        <v>12.571428571428571</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44126</v>
       </c>
@@ -11799,18 +13549,26 @@
         <v>157777</v>
       </c>
       <c r="C226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>359</v>
       </c>
       <c r="D226">
+        <f t="shared" si="14"/>
+        <v>482.42857142857144</v>
+      </c>
+      <c r="E226">
         <v>8527</v>
       </c>
-      <c r="E226">
-        <f t="shared" si="6"/>
+      <c r="F226">
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G226">
+        <f t="shared" si="15"/>
+        <v>11.571428571428571</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44127</v>
       </c>
@@ -11818,18 +13576,26 @@
         <v>158496</v>
       </c>
       <c r="C227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>719</v>
       </c>
       <c r="D227">
+        <f t="shared" si="14"/>
+        <v>415.85714285714283</v>
+      </c>
+      <c r="E227">
         <v>8531</v>
       </c>
-      <c r="E227">
-        <f t="shared" si="6"/>
+      <c r="F227">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <f t="shared" si="15"/>
+        <v>10.142857142857142</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44128</v>
       </c>
@@ -11837,18 +13603,26 @@
         <v>159220</v>
       </c>
       <c r="C228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>724</v>
       </c>
       <c r="D228">
+        <f t="shared" si="14"/>
+        <v>425.14285714285717</v>
+      </c>
+      <c r="E228">
         <v>8542</v>
       </c>
-      <c r="E228">
-        <f t="shared" si="6"/>
+      <c r="F228">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G228">
+        <f t="shared" si="15"/>
+        <v>8.8571428571428577</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44129</v>
       </c>
@@ -11856,18 +13630,26 @@
         <v>159377</v>
       </c>
       <c r="C229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>157</v>
       </c>
       <c r="D229">
+        <f t="shared" si="14"/>
+        <v>471</v>
+      </c>
+      <c r="E229">
         <v>8552</v>
       </c>
-      <c r="E229">
-        <f t="shared" si="6"/>
+      <c r="F229">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <f t="shared" si="15"/>
+        <v>8.8571428571428577</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44130</v>
       </c>
@@ -11875,18 +13657,26 @@
         <v>159476</v>
       </c>
       <c r="C230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>99</v>
       </c>
       <c r="D230">
+        <f t="shared" si="14"/>
+        <v>478.28571428571428</v>
+      </c>
+      <c r="E230">
         <v>8564</v>
       </c>
-      <c r="E230">
-        <f t="shared" si="6"/>
+      <c r="F230">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <f t="shared" si="15"/>
+        <v>9.2857142857142865</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44131</v>
       </c>
@@ -11894,18 +13684,26 @@
         <v>160354</v>
       </c>
       <c r="C231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>878</v>
       </c>
       <c r="D231">
+        <f t="shared" si="14"/>
+        <v>478</v>
+      </c>
+      <c r="E231">
         <v>8575</v>
       </c>
-      <c r="E231">
-        <f t="shared" si="6"/>
+      <c r="F231">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G231">
+        <f t="shared" si="15"/>
+        <v>10.571428571428571</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44132</v>
       </c>
@@ -11913,18 +13711,26 @@
         <v>161161</v>
       </c>
       <c r="C232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>807</v>
       </c>
       <c r="D232">
+        <f t="shared" si="14"/>
+        <v>508.57142857142856</v>
+      </c>
+      <c r="E232">
         <v>8587</v>
       </c>
-      <c r="E232">
-        <f t="shared" si="6"/>
+      <c r="F232">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44133</v>
       </c>
@@ -11932,18 +13738,26 @@
         <v>161740</v>
       </c>
       <c r="C233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>579</v>
       </c>
       <c r="D233">
+        <f t="shared" si="14"/>
+        <v>534.71428571428567</v>
+      </c>
+      <c r="E233">
         <v>8599</v>
       </c>
-      <c r="E233">
-        <f t="shared" si="6"/>
+      <c r="F233">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <f t="shared" si="15"/>
+        <v>9.7142857142857135</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44134</v>
       </c>
@@ -11951,18 +13765,26 @@
         <v>162402</v>
       </c>
       <c r="C234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>662</v>
       </c>
       <c r="D234">
+        <f t="shared" si="14"/>
+        <v>566.14285714285711</v>
+      </c>
+      <c r="E234">
         <v>8609</v>
       </c>
-      <c r="E234">
-        <f t="shared" si="6"/>
+      <c r="F234">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <f t="shared" si="15"/>
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44135</v>
       </c>
@@ -11970,18 +13792,26 @@
         <v>162893</v>
       </c>
       <c r="C235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>491</v>
       </c>
       <c r="D235">
+        <f t="shared" si="14"/>
+        <v>558</v>
+      </c>
+      <c r="E235">
         <v>8627</v>
       </c>
-      <c r="E235">
-        <f t="shared" si="6"/>
+      <c r="F235">
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <f t="shared" si="15"/>
+        <v>11.142857142857142</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44136</v>
       </c>
@@ -11989,18 +13819,26 @@
         <v>162977</v>
       </c>
       <c r="C236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="D236">
+        <f t="shared" si="14"/>
+        <v>524.71428571428567</v>
+      </c>
+      <c r="E236">
         <v>8632</v>
       </c>
-      <c r="E236">
-        <f t="shared" si="6"/>
+      <c r="F236">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G236">
+        <f t="shared" si="15"/>
+        <v>12.142857142857142</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44137</v>
       </c>
@@ -12008,18 +13846,26 @@
         <v>163039</v>
       </c>
       <c r="C237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="D237">
+        <f t="shared" si="14"/>
+        <v>514.28571428571433</v>
+      </c>
+      <c r="E237">
         <v>8638</v>
       </c>
-      <c r="E237">
-        <f t="shared" si="6"/>
+      <c r="F237">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <f t="shared" si="15"/>
+        <v>11.428571428571429</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44138</v>
       </c>
@@ -12027,18 +13873,26 @@
         <v>163156</v>
       </c>
       <c r="C238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>117</v>
       </c>
       <c r="D238">
+        <f t="shared" si="14"/>
+        <v>509</v>
+      </c>
+      <c r="E238">
         <v>8643</v>
       </c>
-      <c r="E238">
-        <f t="shared" si="6"/>
+      <c r="F238">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <f t="shared" si="15"/>
+        <v>10.571428571428571</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44139</v>
       </c>
@@ -12046,18 +13900,26 @@
         <v>163642</v>
       </c>
       <c r="C239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>486</v>
       </c>
       <c r="D239">
+        <f t="shared" si="14"/>
+        <v>400.28571428571428</v>
+      </c>
+      <c r="E239">
         <v>8667</v>
       </c>
-      <c r="E239">
-        <f t="shared" si="6"/>
+      <c r="F239">
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <f t="shared" si="15"/>
+        <v>9.7142857142857135</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44140</v>
       </c>
@@ -12065,18 +13927,26 @@
         <v>164222</v>
       </c>
       <c r="C240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>580</v>
       </c>
       <c r="D240">
+        <f t="shared" si="14"/>
+        <v>354.42857142857144</v>
+      </c>
+      <c r="E240">
         <v>8687</v>
       </c>
-      <c r="E240">
-        <f t="shared" si="6"/>
+      <c r="F240">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <f t="shared" si="15"/>
+        <v>11.428571428571429</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44141</v>
       </c>
@@ -12084,18 +13954,26 @@
         <v>165273</v>
       </c>
       <c r="C241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1051</v>
       </c>
       <c r="D241">
+        <f t="shared" si="14"/>
+        <v>354.57142857142856</v>
+      </c>
+      <c r="E241">
         <v>8711</v>
       </c>
-      <c r="E241">
-        <f t="shared" si="6"/>
+      <c r="F241">
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G241">
+        <f t="shared" si="15"/>
+        <v>12.571428571428571</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44142</v>
       </c>
@@ -12103,18 +13981,26 @@
         <v>165922</v>
       </c>
       <c r="C242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>649</v>
       </c>
       <c r="D242">
+        <f t="shared" si="14"/>
+        <v>410.14285714285717</v>
+      </c>
+      <c r="E242">
         <v>8724</v>
       </c>
-      <c r="E242">
-        <f t="shared" si="6"/>
+      <c r="F242">
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G242">
+        <f t="shared" si="15"/>
+        <v>14.571428571428571</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44143</v>
       </c>
@@ -12122,18 +14008,26 @@
         <v>166333</v>
       </c>
       <c r="C243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>411</v>
       </c>
       <c r="D243">
+        <f t="shared" si="14"/>
+        <v>432.71428571428572</v>
+      </c>
+      <c r="E243">
         <v>8732</v>
       </c>
-      <c r="E243">
-        <f t="shared" si="6"/>
+      <c r="F243">
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G243">
+        <f t="shared" si="15"/>
+        <v>13.857142857142858</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44144</v>
       </c>
@@ -12141,18 +14035,26 @@
         <v>166540</v>
       </c>
       <c r="C244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>207</v>
       </c>
       <c r="D244">
+        <f t="shared" si="14"/>
+        <v>479.42857142857144</v>
+      </c>
+      <c r="E244">
         <v>8740</v>
       </c>
-      <c r="E244">
-        <f t="shared" si="6"/>
+      <c r="F244">
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <f t="shared" si="15"/>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44145</v>
       </c>
@@ -12160,18 +14062,26 @@
         <v>167233</v>
       </c>
       <c r="C245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>693</v>
       </c>
       <c r="D245">
+        <f t="shared" si="14"/>
+        <v>500.14285714285717</v>
+      </c>
+      <c r="E245">
         <v>8763</v>
       </c>
-      <c r="E245">
-        <f t="shared" si="6"/>
+      <c r="F245">
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <f t="shared" si="15"/>
+        <v>14.571428571428571</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44146</v>
       </c>
@@ -12179,18 +14089,26 @@
         <v>168093</v>
       </c>
       <c r="C246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>860</v>
       </c>
       <c r="D246">
+        <f t="shared" si="14"/>
+        <v>582.42857142857144</v>
+      </c>
+      <c r="E246">
         <v>8773</v>
       </c>
-      <c r="E246">
-        <f t="shared" si="6"/>
+      <c r="F246">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <f t="shared" si="15"/>
+        <v>17.142857142857142</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44147</v>
       </c>
@@ -12198,18 +14116,26 @@
         <v>168880</v>
       </c>
       <c r="C247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>787</v>
       </c>
       <c r="D247">
+        <f t="shared" si="14"/>
+        <v>635.85714285714289</v>
+      </c>
+      <c r="E247">
         <v>8794</v>
       </c>
-      <c r="E247">
-        <f t="shared" si="6"/>
+      <c r="F247">
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <f t="shared" si="15"/>
+        <v>15.142857142857142</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44148</v>
       </c>
@@ -12217,18 +14143,26 @@
         <v>169710</v>
       </c>
       <c r="C248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>830</v>
       </c>
       <c r="D248">
+        <f t="shared" si="14"/>
+        <v>665.42857142857144</v>
+      </c>
+      <c r="E248">
         <v>8805</v>
       </c>
-      <c r="E248">
-        <f t="shared" si="6"/>
+      <c r="F248">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <f t="shared" si="15"/>
+        <v>15.285714285714286</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44149</v>
       </c>
@@ -12236,18 +14170,26 @@
         <v>170553</v>
       </c>
       <c r="C249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>843</v>
       </c>
       <c r="D249">
+        <f t="shared" si="14"/>
+        <v>633.85714285714289</v>
+      </c>
+      <c r="E249">
         <v>8815</v>
       </c>
-      <c r="E249">
-        <f t="shared" si="6"/>
+      <c r="F249">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <f t="shared" si="15"/>
+        <v>13.428571428571429</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44150</v>
       </c>
@@ -12255,18 +14197,26 @@
         <v>170860</v>
       </c>
       <c r="C250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>307</v>
       </c>
       <c r="D250">
+        <f t="shared" si="14"/>
+        <v>661.57142857142856</v>
+      </c>
+      <c r="E250">
         <v>8827</v>
       </c>
-      <c r="E250">
-        <f t="shared" si="6"/>
+      <c r="F250">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44151</v>
       </c>
@@ -12274,18 +14224,26 @@
         <v>171216</v>
       </c>
       <c r="C251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>356</v>
       </c>
       <c r="D251">
+        <f t="shared" si="14"/>
+        <v>646.71428571428567</v>
+      </c>
+      <c r="E251">
         <v>8838</v>
       </c>
-      <c r="E251">
-        <f t="shared" si="6"/>
+      <c r="F251">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G251">
+        <f t="shared" si="15"/>
+        <v>13.571428571428571</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44152</v>
       </c>
@@ -12293,18 +14251,26 @@
         <v>171890</v>
       </c>
       <c r="C252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>674</v>
       </c>
       <c r="D252">
+        <f t="shared" si="14"/>
+        <v>668</v>
+      </c>
+      <c r="E252">
         <v>8854</v>
       </c>
-      <c r="E252">
-        <f t="shared" si="6"/>
+      <c r="F252">
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G252">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44153</v>
       </c>
@@ -12312,18 +14278,26 @@
         <v>172716</v>
       </c>
       <c r="C253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>826</v>
       </c>
       <c r="D253">
+        <f t="shared" si="14"/>
+        <v>665.28571428571433</v>
+      </c>
+      <c r="E253">
         <v>8873</v>
       </c>
-      <c r="E253">
-        <f t="shared" si="6"/>
+      <c r="F253">
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G253">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44154</v>
       </c>
@@ -12331,18 +14305,26 @@
         <v>173624</v>
       </c>
       <c r="C254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>908</v>
       </c>
       <c r="D254">
+        <f t="shared" si="14"/>
+        <v>660.42857142857144</v>
+      </c>
+      <c r="E254">
         <v>8890</v>
       </c>
-      <c r="E254">
-        <f t="shared" si="6"/>
+      <c r="F254">
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G254">
+        <f t="shared" si="15"/>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44155</v>
       </c>
@@ -12350,18 +14332,26 @@
         <v>174312</v>
       </c>
       <c r="C255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>688</v>
       </c>
       <c r="D255">
+        <f t="shared" si="14"/>
+        <v>677.71428571428567</v>
+      </c>
+      <c r="E255">
         <v>8899</v>
       </c>
-      <c r="E255">
-        <f t="shared" si="6"/>
+      <c r="F255">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <f t="shared" si="15"/>
+        <v>13.714285714285714</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44156</v>
       </c>
@@ -12369,18 +14359,26 @@
         <v>175258</v>
       </c>
       <c r="C256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>946</v>
       </c>
       <c r="D256">
+        <f t="shared" si="14"/>
+        <v>657.42857142857144</v>
+      </c>
+      <c r="E256">
         <v>8920</v>
       </c>
-      <c r="E256">
-        <f t="shared" si="6"/>
+      <c r="F256">
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G256">
+        <f t="shared" si="15"/>
+        <v>13.428571428571429</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44157</v>
       </c>
@@ -12388,18 +14386,26 @@
         <v>175730</v>
       </c>
       <c r="C257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>472</v>
       </c>
       <c r="D257">
+        <f t="shared" si="14"/>
+        <v>672.14285714285711</v>
+      </c>
+      <c r="E257">
         <v>8923</v>
       </c>
-      <c r="E257">
-        <f t="shared" si="6"/>
+      <c r="F257">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G257">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44158</v>
       </c>
@@ -12407,18 +14413,26 @@
         <v>176158</v>
       </c>
       <c r="C258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>428</v>
       </c>
       <c r="D258">
+        <f t="shared" si="14"/>
+        <v>695.71428571428567</v>
+      </c>
+      <c r="E258">
         <v>8926</v>
       </c>
-      <c r="E258">
-        <f t="shared" si="6"/>
+      <c r="F258">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G258">
+        <f t="shared" si="15"/>
+        <v>13.714285714285714</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44159</v>
       </c>
@@ -12426,18 +14440,26 @@
         <v>176939</v>
       </c>
       <c r="C259">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>781</v>
       </c>
       <c r="D259">
+        <f t="shared" si="14"/>
+        <v>706</v>
+      </c>
+      <c r="E259">
         <v>8951</v>
       </c>
-      <c r="E259">
-        <f t="shared" si="6"/>
+      <c r="F259">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G259">
+        <f t="shared" si="15"/>
+        <v>12.571428571428571</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44160</v>
       </c>
@@ -12445,18 +14467,26 @@
         <v>178086</v>
       </c>
       <c r="C260">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1147</v>
       </c>
       <c r="D260">
+        <f t="shared" si="14"/>
+        <v>721.28571428571433</v>
+      </c>
+      <c r="E260">
         <v>8971</v>
       </c>
-      <c r="E260">
-        <f t="shared" ref="E260:E310" si="8">D260-D259</f>
+      <c r="F260">
+        <f t="shared" ref="F260:F310" si="16">E260-E259</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G260">
+        <f t="shared" si="15"/>
+        <v>13.857142857142858</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44161</v>
       </c>
@@ -12464,18 +14494,26 @@
         <v>178639</v>
       </c>
       <c r="C261">
-        <f t="shared" ref="C261:C310" si="9">B261-B260</f>
+        <f t="shared" ref="C261:C310" si="17">B261-B260</f>
         <v>553</v>
       </c>
       <c r="D261">
+        <f t="shared" si="14"/>
+        <v>767.14285714285711</v>
+      </c>
+      <c r="E261">
         <v>8987</v>
       </c>
-      <c r="E261">
-        <f t="shared" si="8"/>
+      <c r="F261">
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G261">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44162</v>
       </c>
@@ -12483,18 +14521,26 @@
         <v>179308</v>
       </c>
       <c r="C262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>669</v>
       </c>
       <c r="D262">
+        <f t="shared" si="14"/>
+        <v>716.42857142857144</v>
+      </c>
+      <c r="E262">
         <v>8999</v>
       </c>
-      <c r="E262">
-        <f t="shared" si="8"/>
+      <c r="F262">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G262">
+        <f t="shared" si="15"/>
+        <v>13.857142857142858</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44163</v>
       </c>
@@ -12502,18 +14548,26 @@
         <v>181392</v>
       </c>
       <c r="C263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>2084</v>
       </c>
       <c r="D263">
+        <f t="shared" si="14"/>
+        <v>713.71428571428567</v>
+      </c>
+      <c r="E263">
         <v>9019</v>
       </c>
-      <c r="E263">
-        <f t="shared" si="8"/>
+      <c r="F263">
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G263">
+        <f t="shared" si="15"/>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44164</v>
       </c>
@@ -12521,18 +14575,26 @@
         <v>181841</v>
       </c>
       <c r="C264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>449</v>
       </c>
       <c r="D264">
+        <f t="shared" si="14"/>
+        <v>876.28571428571433</v>
+      </c>
+      <c r="E264">
         <v>9030</v>
       </c>
-      <c r="E264">
-        <f t="shared" si="8"/>
+      <c r="F264">
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G264">
+        <f t="shared" si="15"/>
+        <v>14.142857142857142</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44165</v>
       </c>
@@ -12540,18 +14602,26 @@
         <v>182406</v>
       </c>
       <c r="C265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>565</v>
       </c>
       <c r="D265">
+        <f t="shared" si="14"/>
+        <v>873</v>
+      </c>
+      <c r="E265">
         <v>9037</v>
       </c>
-      <c r="E265">
-        <f t="shared" si="8"/>
+      <c r="F265">
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G265">
+        <f t="shared" si="15"/>
+        <v>15.285714285714286</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44166</v>
       </c>
@@ -12559,18 +14629,26 @@
         <v>184259</v>
       </c>
       <c r="C266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1853</v>
       </c>
       <c r="D266">
+        <f t="shared" ref="D266:D310" si="18">AVERAGE(C259:C265)</f>
+        <v>892.57142857142856</v>
+      </c>
+      <c r="E266">
         <v>9056</v>
       </c>
-      <c r="E266">
-        <f t="shared" si="8"/>
+      <c r="F266">
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G266">
+        <f t="shared" ref="G266:G310" si="19">AVERAGE(F259:F265)</f>
+        <v>15.857142857142858</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44167</v>
       </c>
@@ -12578,18 +14656,26 @@
         <v>185607</v>
       </c>
       <c r="C267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1348</v>
       </c>
       <c r="D267">
+        <f t="shared" si="18"/>
+        <v>1045.7142857142858</v>
+      </c>
+      <c r="E267">
         <v>9082</v>
       </c>
-      <c r="E267">
-        <f t="shared" si="8"/>
+      <c r="F267">
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G267">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44168</v>
       </c>
@@ -12597,18 +14683,26 @@
         <v>187038</v>
       </c>
       <c r="C268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1431</v>
       </c>
       <c r="D268">
+        <f t="shared" si="18"/>
+        <v>1074.4285714285713</v>
+      </c>
+      <c r="E268">
         <v>9098</v>
       </c>
-      <c r="E268">
-        <f t="shared" si="8"/>
+      <c r="F268">
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G268">
+        <f t="shared" si="19"/>
+        <v>15.857142857142858</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44169</v>
       </c>
@@ -12616,18 +14710,26 @@
         <v>188132</v>
       </c>
       <c r="C269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1094</v>
       </c>
       <c r="D269">
+        <f t="shared" si="18"/>
+        <v>1199.8571428571429</v>
+      </c>
+      <c r="E269">
         <v>9119</v>
       </c>
-      <c r="E269">
-        <f t="shared" si="8"/>
+      <c r="F269">
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G269">
+        <f t="shared" si="19"/>
+        <v>15.857142857142858</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44170</v>
       </c>
@@ -12635,18 +14737,26 @@
         <v>189650</v>
       </c>
       <c r="C270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1518</v>
       </c>
       <c r="D270">
+        <f t="shared" si="18"/>
+        <v>1260.5714285714287</v>
+      </c>
+      <c r="E270">
         <v>9140</v>
       </c>
-      <c r="E270">
-        <f t="shared" si="8"/>
+      <c r="F270">
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G270">
+        <f t="shared" si="19"/>
+        <v>17.142857142857142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44171</v>
       </c>
@@ -12654,18 +14764,26 @@
         <v>190415</v>
       </c>
       <c r="C271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>765</v>
       </c>
       <c r="D271">
+        <f t="shared" si="18"/>
+        <v>1179.7142857142858</v>
+      </c>
+      <c r="E271">
         <v>9148</v>
       </c>
-      <c r="E271">
-        <f t="shared" si="8"/>
+      <c r="F271">
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G271">
+        <f t="shared" si="19"/>
+        <v>17.285714285714285</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44172</v>
       </c>
@@ -12673,18 +14791,26 @@
         <v>191161</v>
       </c>
       <c r="C272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>746</v>
       </c>
       <c r="D272">
+        <f t="shared" si="18"/>
+        <v>1224.8571428571429</v>
+      </c>
+      <c r="E272">
         <v>9170</v>
       </c>
-      <c r="E272">
-        <f t="shared" si="8"/>
+      <c r="F272">
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G272">
+        <f t="shared" si="19"/>
+        <v>16.857142857142858</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44173</v>
       </c>
@@ -12692,18 +14818,26 @@
         <v>192397</v>
       </c>
       <c r="C273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1236</v>
       </c>
       <c r="D273">
+        <f t="shared" si="18"/>
+        <v>1250.7142857142858</v>
+      </c>
+      <c r="E273">
         <v>9186</v>
       </c>
-      <c r="E273">
-        <f t="shared" si="8"/>
+      <c r="F273">
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G273">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44174</v>
       </c>
@@ -12711,18 +14845,26 @@
         <v>193530</v>
       </c>
       <c r="C274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1133</v>
       </c>
       <c r="D274">
+        <f t="shared" si="18"/>
+        <v>1162.5714285714287</v>
+      </c>
+      <c r="E274">
         <v>9200</v>
       </c>
-      <c r="E274">
-        <f t="shared" si="8"/>
+      <c r="F274">
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G274">
+        <f t="shared" si="19"/>
+        <v>18.571428571428573</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44175</v>
       </c>
@@ -12730,18 +14872,26 @@
         <v>195118</v>
       </c>
       <c r="C275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1588</v>
       </c>
       <c r="D275">
+        <f t="shared" si="18"/>
+        <v>1131.8571428571429</v>
+      </c>
+      <c r="E275">
         <v>9229</v>
       </c>
-      <c r="E275">
-        <f t="shared" si="8"/>
+      <c r="F275">
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G275">
+        <f t="shared" si="19"/>
+        <v>16.857142857142858</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44176</v>
       </c>
@@ -12749,18 +14899,26 @@
         <v>197063</v>
       </c>
       <c r="C276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1945</v>
       </c>
       <c r="D276">
+        <f t="shared" si="18"/>
+        <v>1154.2857142857142</v>
+      </c>
+      <c r="E276">
         <v>9244</v>
       </c>
-      <c r="E276">
-        <f t="shared" si="8"/>
+      <c r="F276">
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G276">
+        <f t="shared" si="19"/>
+        <v>18.714285714285715</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44177</v>
       </c>
@@ -12768,18 +14926,26 @@
         <v>198426</v>
       </c>
       <c r="C277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1363</v>
       </c>
       <c r="D277">
+        <f t="shared" si="18"/>
+        <v>1275.8571428571429</v>
+      </c>
+      <c r="E277">
         <v>9271</v>
       </c>
-      <c r="E277">
-        <f t="shared" si="8"/>
+      <c r="F277">
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G277">
+        <f t="shared" si="19"/>
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44178</v>
       </c>
@@ -12787,18 +14953,26 @@
         <v>198684</v>
       </c>
       <c r="C278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>258</v>
       </c>
       <c r="D278">
+        <f t="shared" si="18"/>
+        <v>1253.7142857142858</v>
+      </c>
+      <c r="E278">
         <v>9284</v>
       </c>
-      <c r="E278">
-        <f t="shared" si="8"/>
+      <c r="F278">
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G278">
+        <f t="shared" si="19"/>
+        <v>18.714285714285715</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44179</v>
       </c>
@@ -12806,18 +14980,26 @@
         <v>199046</v>
       </c>
       <c r="C279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>362</v>
       </c>
       <c r="D279">
+        <f t="shared" si="18"/>
+        <v>1181.2857142857142</v>
+      </c>
+      <c r="E279">
         <v>9299</v>
       </c>
-      <c r="E279">
-        <f t="shared" si="8"/>
+      <c r="F279">
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G279">
+        <f t="shared" si="19"/>
+        <v>19.428571428571427</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44180</v>
       </c>
@@ -12825,18 +15007,26 @@
         <v>199780</v>
       </c>
       <c r="C280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>734</v>
       </c>
       <c r="D280">
+        <f t="shared" si="18"/>
+        <v>1126.4285714285713</v>
+      </c>
+      <c r="E280">
         <v>9324</v>
       </c>
-      <c r="E280">
-        <f t="shared" si="8"/>
+      <c r="F280">
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G280">
+        <f t="shared" si="19"/>
+        <v>18.428571428571427</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44181</v>
       </c>
@@ -12844,18 +15034,26 @@
         <v>201851</v>
       </c>
       <c r="C281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>2071</v>
       </c>
       <c r="D281">
+        <f t="shared" si="18"/>
+        <v>1054.7142857142858</v>
+      </c>
+      <c r="E281">
         <v>9339</v>
       </c>
-      <c r="E281">
-        <f t="shared" si="8"/>
+      <c r="F281">
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G281">
+        <f t="shared" si="19"/>
+        <v>19.714285714285715</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44182</v>
       </c>
@@ -12863,18 +15061,26 @@
         <v>203497</v>
       </c>
       <c r="C282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1646</v>
       </c>
       <c r="D282">
+        <f t="shared" si="18"/>
+        <v>1188.7142857142858</v>
+      </c>
+      <c r="E282">
         <v>9361</v>
       </c>
-      <c r="E282">
-        <f t="shared" si="8"/>
+      <c r="F282">
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G282">
+        <f t="shared" si="19"/>
+        <v>19.857142857142858</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44183</v>
       </c>
@@ -12882,18 +15088,26 @@
         <v>205262</v>
       </c>
       <c r="C283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1765</v>
       </c>
       <c r="D283">
+        <f t="shared" si="18"/>
+        <v>1197</v>
+      </c>
+      <c r="E283">
         <v>9383</v>
       </c>
-      <c r="E283">
-        <f t="shared" si="8"/>
+      <c r="F283">
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G283">
+        <f t="shared" si="19"/>
+        <v>18.857142857142858</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44184</v>
       </c>
@@ -12901,18 +15115,26 @@
         <v>207008</v>
       </c>
       <c r="C284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1746</v>
       </c>
       <c r="D284">
+        <f t="shared" si="18"/>
+        <v>1171.2857142857142</v>
+      </c>
+      <c r="E284">
         <v>9418</v>
       </c>
-      <c r="E284">
-        <f t="shared" si="8"/>
+      <c r="F284">
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G284">
+        <f t="shared" si="19"/>
+        <v>19.857142857142858</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44185</v>
       </c>
@@ -12920,18 +15142,26 @@
         <v>207426</v>
       </c>
       <c r="C285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>418</v>
       </c>
       <c r="D285">
+        <f t="shared" si="18"/>
+        <v>1226</v>
+      </c>
+      <c r="E285">
         <v>9435</v>
       </c>
-      <c r="E285">
-        <f t="shared" si="8"/>
+      <c r="F285">
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G285">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44186</v>
       </c>
@@ -12939,18 +15169,26 @@
         <v>208135</v>
       </c>
       <c r="C286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>709</v>
       </c>
       <c r="D286">
+        <f t="shared" si="18"/>
+        <v>1248.8571428571429</v>
+      </c>
+      <c r="E286">
         <v>9443</v>
       </c>
-      <c r="E286">
-        <f t="shared" si="8"/>
+      <c r="F286">
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G286">
+        <f t="shared" si="19"/>
+        <v>21.571428571428573</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44187</v>
       </c>
@@ -12958,18 +15196,26 @@
         <v>210081</v>
       </c>
       <c r="C287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1946</v>
       </c>
       <c r="D287">
+        <f t="shared" si="18"/>
+        <v>1298.4285714285713</v>
+      </c>
+      <c r="E287">
         <v>9459</v>
       </c>
-      <c r="E287">
-        <f t="shared" si="8"/>
+      <c r="F287">
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G287">
+        <f t="shared" si="19"/>
+        <v>20.571428571428573</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44188</v>
       </c>
@@ -12977,18 +15223,26 @@
         <v>211996</v>
       </c>
       <c r="C288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1915</v>
       </c>
       <c r="D288">
+        <f t="shared" si="18"/>
+        <v>1471.5714285714287</v>
+      </c>
+      <c r="E288">
         <v>9487</v>
       </c>
-      <c r="E288">
-        <f t="shared" si="8"/>
+      <c r="F288">
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G288">
+        <f t="shared" si="19"/>
+        <v>19.285714285714285</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44189</v>
       </c>
@@ -12996,18 +15250,26 @@
         <v>213453</v>
       </c>
       <c r="C289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1457</v>
       </c>
       <c r="D289">
+        <f t="shared" si="18"/>
+        <v>1449.2857142857142</v>
+      </c>
+      <c r="E289">
         <v>9523</v>
       </c>
-      <c r="E289">
-        <f t="shared" si="8"/>
+      <c r="F289">
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G289">
+        <f t="shared" si="19"/>
+        <v>21.142857142857142</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44190</v>
       </c>
@@ -13015,18 +15277,26 @@
         <v>214562</v>
       </c>
       <c r="C290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1109</v>
       </c>
       <c r="D290">
+        <f t="shared" si="18"/>
+        <v>1422.2857142857142</v>
+      </c>
+      <c r="E290">
         <v>9544</v>
       </c>
-      <c r="E290">
-        <f t="shared" si="8"/>
+      <c r="F290">
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G290">
+        <f t="shared" si="19"/>
+        <v>23.142857142857142</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44191</v>
       </c>
@@ -13034,18 +15304,26 @@
         <v>214949</v>
       </c>
       <c r="C291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>387</v>
       </c>
       <c r="D291">
+        <f t="shared" si="18"/>
+        <v>1328.5714285714287</v>
+      </c>
+      <c r="E291">
         <v>9560</v>
       </c>
-      <c r="E291">
-        <f t="shared" si="8"/>
+      <c r="F291">
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G291">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44192</v>
       </c>
@@ -13053,18 +15331,26 @@
         <v>215552</v>
       </c>
       <c r="C292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>603</v>
       </c>
       <c r="D292">
+        <f t="shared" si="18"/>
+        <v>1134.4285714285713</v>
+      </c>
+      <c r="E292">
         <v>9571</v>
       </c>
-      <c r="E292">
-        <f t="shared" si="8"/>
+      <c r="F292">
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G292">
+        <f t="shared" si="19"/>
+        <v>20.285714285714285</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44193</v>
       </c>
@@ -13072,18 +15358,26 @@
         <v>215994</v>
       </c>
       <c r="C293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>442</v>
       </c>
       <c r="D293">
+        <f t="shared" si="18"/>
+        <v>1160.8571428571429</v>
+      </c>
+      <c r="E293">
         <v>9588</v>
       </c>
-      <c r="E293">
-        <f t="shared" si="8"/>
+      <c r="F293">
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G293">
+        <f t="shared" si="19"/>
+        <v>19.428571428571427</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44194</v>
       </c>
@@ -13091,18 +15385,26 @@
         <v>217772</v>
       </c>
       <c r="C294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1778</v>
       </c>
       <c r="D294">
+        <f t="shared" si="18"/>
+        <v>1122.7142857142858</v>
+      </c>
+      <c r="E294">
         <v>9612</v>
       </c>
-      <c r="E294">
-        <f t="shared" si="8"/>
+      <c r="F294">
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G294">
+        <f t="shared" si="19"/>
+        <v>20.714285714285715</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44195</v>
       </c>
@@ -13110,18 +15412,26 @@
         <v>220284</v>
       </c>
       <c r="C295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>2512</v>
       </c>
       <c r="D295">
+        <f t="shared" si="18"/>
+        <v>1098.7142857142858</v>
+      </c>
+      <c r="E295">
         <v>9632</v>
       </c>
-      <c r="E295">
-        <f t="shared" si="8"/>
+      <c r="F295">
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G295">
+        <f t="shared" si="19"/>
+        <v>21.857142857142858</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44196</v>
       </c>
@@ -13129,18 +15439,26 @@
         <v>222166</v>
       </c>
       <c r="C296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1882</v>
       </c>
       <c r="D296">
+        <f t="shared" si="18"/>
+        <v>1184</v>
+      </c>
+      <c r="E296">
         <v>9654</v>
       </c>
-      <c r="E296">
-        <f t="shared" si="8"/>
+      <c r="F296">
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G296">
+        <f t="shared" si="19"/>
+        <v>20.714285714285715</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44197</v>
       </c>
@@ -13148,18 +15466,26 @@
         <v>222993</v>
       </c>
       <c r="C297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>827</v>
       </c>
       <c r="D297">
+        <f t="shared" si="18"/>
+        <v>1244.7142857142858</v>
+      </c>
+      <c r="E297">
         <v>9666</v>
       </c>
-      <c r="E297">
-        <f t="shared" si="8"/>
+      <c r="F297">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G297">
+        <f t="shared" si="19"/>
+        <v>18.714285714285715</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44198</v>
       </c>
@@ -13167,18 +15493,26 @@
         <v>223325</v>
       </c>
       <c r="C298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>332</v>
       </c>
       <c r="D298">
+        <f t="shared" si="18"/>
+        <v>1204.4285714285713</v>
+      </c>
+      <c r="E298">
         <v>9674</v>
       </c>
-      <c r="E298">
-        <f t="shared" si="8"/>
+      <c r="F298">
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G298">
+        <f t="shared" si="19"/>
+        <v>17.428571428571427</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44199</v>
       </c>
@@ -13186,18 +15520,26 @@
         <v>223540</v>
       </c>
       <c r="C299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>215</v>
       </c>
       <c r="D299">
+        <f t="shared" si="18"/>
+        <v>1196.5714285714287</v>
+      </c>
+      <c r="E299">
         <v>9679</v>
       </c>
-      <c r="E299">
-        <f t="shared" si="8"/>
+      <c r="F299">
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G299">
+        <f t="shared" si="19"/>
+        <v>16.285714285714285</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44200</v>
       </c>
@@ -13205,18 +15547,26 @@
         <v>223845</v>
       </c>
       <c r="C300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>305</v>
       </c>
       <c r="D300">
+        <f t="shared" si="18"/>
+        <v>1141.1428571428571</v>
+      </c>
+      <c r="E300">
         <v>9691</v>
       </c>
-      <c r="E300">
-        <f t="shared" si="8"/>
+      <c r="F300">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G300">
+        <f t="shared" si="19"/>
+        <v>15.428571428571429</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44201</v>
       </c>
@@ -13224,18 +15574,26 @@
         <v>225336</v>
       </c>
       <c r="C301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1491</v>
       </c>
       <c r="D301">
+        <f t="shared" si="18"/>
+        <v>1121.5714285714287</v>
+      </c>
+      <c r="E301">
         <v>9709</v>
       </c>
-      <c r="E301">
-        <f t="shared" si="8"/>
+      <c r="F301">
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G301">
+        <f t="shared" si="19"/>
+        <v>14.714285714285714</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44202</v>
       </c>
@@ -13243,18 +15601,26 @@
         <v>226940</v>
       </c>
       <c r="C302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1604</v>
       </c>
       <c r="D302">
+        <f t="shared" si="18"/>
+        <v>1080.5714285714287</v>
+      </c>
+      <c r="E302">
         <v>9731</v>
       </c>
-      <c r="E302">
-        <f t="shared" si="8"/>
+      <c r="F302">
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G302">
+        <f t="shared" si="19"/>
+        <v>13.857142857142858</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44203</v>
       </c>
@@ -13262,18 +15628,26 @@
         <v>228451</v>
       </c>
       <c r="C303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1511</v>
       </c>
       <c r="D303">
+        <f t="shared" si="18"/>
+        <v>950.85714285714289</v>
+      </c>
+      <c r="E303">
         <v>9763</v>
       </c>
-      <c r="E303">
-        <f t="shared" si="8"/>
+      <c r="F303">
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G303">
+        <f t="shared" si="19"/>
+        <v>14.142857142857142</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44204</v>
       </c>
@@ -13281,18 +15655,26 @@
         <v>229701</v>
       </c>
       <c r="C304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1250</v>
       </c>
       <c r="D304">
+        <f t="shared" si="18"/>
+        <v>897.85714285714289</v>
+      </c>
+      <c r="E304">
         <v>9789</v>
       </c>
-      <c r="E304">
-        <f t="shared" si="8"/>
+      <c r="F304">
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G304">
+        <f t="shared" si="19"/>
+        <v>15.571428571428571</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44205</v>
       </c>
@@ -13300,18 +15682,26 @@
         <v>230891</v>
       </c>
       <c r="C305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1190</v>
       </c>
       <c r="D305">
+        <f t="shared" si="18"/>
+        <v>958.28571428571433</v>
+      </c>
+      <c r="E305">
         <v>9826</v>
       </c>
-      <c r="E305">
-        <f t="shared" si="8"/>
+      <c r="F305">
+        <f t="shared" si="16"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G305">
+        <f t="shared" si="19"/>
+        <v>17.571428571428573</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44206</v>
       </c>
@@ -13319,18 +15709,26 @@
         <v>232037</v>
       </c>
       <c r="C306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1146</v>
       </c>
       <c r="D306">
+        <f t="shared" si="18"/>
+        <v>1080.8571428571429</v>
+      </c>
+      <c r="E306">
         <v>9840</v>
       </c>
-      <c r="E306">
-        <f t="shared" si="8"/>
+      <c r="F306">
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G306">
+        <f t="shared" si="19"/>
+        <v>21.714285714285715</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44207</v>
       </c>
@@ -13338,18 +15736,26 @@
         <v>232756</v>
       </c>
       <c r="C307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>719</v>
       </c>
       <c r="D307">
+        <f t="shared" si="18"/>
+        <v>1213.8571428571429</v>
+      </c>
+      <c r="E307">
         <v>9851</v>
       </c>
-      <c r="E307">
-        <f t="shared" si="8"/>
+      <c r="F307">
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G307">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44208</v>
       </c>
@@ -13357,18 +15763,26 @@
         <v>234238</v>
       </c>
       <c r="C308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1482</v>
       </c>
       <c r="D308">
+        <f t="shared" si="18"/>
+        <v>1273</v>
+      </c>
+      <c r="E308">
         <v>9889</v>
       </c>
-      <c r="E308">
-        <f t="shared" si="8"/>
+      <c r="F308">
+        <f t="shared" si="16"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G308">
+        <f t="shared" si="19"/>
+        <v>22.857142857142858</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44209</v>
       </c>
@@ -13376,18 +15790,26 @@
         <v>236041</v>
       </c>
       <c r="C309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1803</v>
       </c>
       <c r="D309">
+        <f t="shared" si="18"/>
+        <v>1271.7142857142858</v>
+      </c>
+      <c r="E309">
         <v>9919</v>
       </c>
-      <c r="E309">
-        <f t="shared" si="8"/>
+      <c r="F309">
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G309">
+        <f t="shared" si="19"/>
+        <v>25.714285714285715</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44210</v>
       </c>
@@ -13395,15 +15817,23 @@
         <v>237453</v>
       </c>
       <c r="C310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1412</v>
       </c>
       <c r="D310">
+        <f t="shared" si="18"/>
+        <v>1300.1428571428571</v>
+      </c>
+      <c r="E310">
         <v>9946</v>
       </c>
-      <c r="E310">
-        <f t="shared" si="8"/>
+      <c r="F310">
+        <f t="shared" si="16"/>
         <v>27</v>
+      </c>
+      <c r="G310">
+        <f t="shared" si="19"/>
+        <v>26.857142857142858</v>
       </c>
     </row>
   </sheetData>
@@ -13415,7 +15845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231C42AF-6909-4CFB-978E-A4BFD0AFD605}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
